--- a/work-in-progress/Peppol Code Lists - Document types v9.1.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v9.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67DC98C-2C40-47DF-B048-8DC54ABFA92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3370B237-0139-49FC-AE9C-37E4C23F9A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
@@ -2300,12 +2300,6 @@
     <t>Digital Post</t>
   </si>
   <si>
-    <t>Peppol BIS SelfBilling UBL Invoice V3</t>
-  </si>
-  <si>
-    <t>Peppol BIS SelfBilling UBL CreditNote V3</t>
-  </si>
-  <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:cen.eu:en16931:2017#compliant#urn:fdc:peppol.eu:2017:poacc:selfbilling:3.0::2.1</t>
   </si>
   <si>
@@ -2396,6 +2390,12 @@
     <t>cenbii-procid-ubl::urn:fdc:peppol.eu:poacc:bis:invoice_response:3
 cenbii-procid-ubl::urn:peppol:france:billing:regulated
 cenbii-procid-ubl::urn:peppol:france:billing:non-regulated</t>
+  </si>
+  <si>
+    <t>Peppol BIS Self-Billing UBL Invoice V3</t>
+  </si>
+  <si>
+    <t>Peppol BIS Self-Billing UBL CreditNote V3</t>
   </si>
 </sst>
 </file>
@@ -3058,9 +3058,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
   <dimension ref="A1:N277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N55" sqref="N55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4340,7 +4340,7 @@
         <v>366</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="I32" s="5" t="b">
         <v>0</v>
@@ -4359,7 +4359,7 @@
         <v>718</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -4379,7 +4379,7 @@
         <v>366</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="I33" s="5" t="b">
         <v>0</v>
@@ -4398,7 +4398,7 @@
         <v>719</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -5246,7 +5246,7 @@
         <v>366</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="I55" s="5" t="b">
         <v>0</v>
@@ -5265,7 +5265,7 @@
         <v>725</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -13197,22 +13197,22 @@
     </row>
     <row r="269" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C269" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="B269" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C269" s="5" t="s">
+      <c r="D269" s="27" t="s">
         <v>736</v>
       </c>
-      <c r="D269" s="27" t="s">
-        <v>738</v>
-      </c>
       <c r="E269" s="23" t="s">
         <v>366</v>
       </c>
       <c r="H269" s="5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I269" s="5" t="b">
         <v>0</v>
@@ -13231,27 +13231,27 @@
         <v>718</v>
       </c>
       <c r="N269" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="270" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C270" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="B270" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C270" s="5" t="s">
-        <v>737</v>
-      </c>
       <c r="D270" s="27" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E270" s="23" t="s">
         <v>366</v>
       </c>
       <c r="H270" s="5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I270" s="5" t="b">
         <v>0</v>
@@ -13270,27 +13270,27 @@
         <v>719</v>
       </c>
       <c r="N270" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="271" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B271" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D271" s="27" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E271" s="23" t="s">
         <v>366</v>
       </c>
       <c r="H271" s="5" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I271" s="5" t="b">
         <v>0</v>
@@ -13302,30 +13302,30 @@
         <v>601</v>
       </c>
       <c r="M271" s="23" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="N271" s="5" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="272" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B272" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D272" s="27" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E272" s="23" t="s">
         <v>366</v>
       </c>
       <c r="H272" s="5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I272" s="5" t="b">
         <v>0</v>
@@ -13338,33 +13338,33 @@
         <v>1</v>
       </c>
       <c r="L272" s="23" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="M272" s="23" t="s">
         <v>718</v>
       </c>
       <c r="N272" s="5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="273" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B273" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D273" s="27" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E273" s="23" t="s">
         <v>366</v>
       </c>
       <c r="H273" s="5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I273" s="5" t="b">
         <v>0</v>
@@ -13377,33 +13377,33 @@
         <v>1</v>
       </c>
       <c r="L273" s="23" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="M273" s="23" t="s">
         <v>718</v>
       </c>
       <c r="N273" s="5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="274" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B274" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D274" s="27" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E274" s="23" t="s">
         <v>366</v>
       </c>
       <c r="H274" s="5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I274" s="5" t="b">
         <v>0</v>
@@ -13416,33 +13416,33 @@
         <v>1</v>
       </c>
       <c r="L274" s="23" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="M274" s="23" t="s">
         <v>718</v>
       </c>
       <c r="N274" s="5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="275" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B275" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D275" s="27" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E275" s="23" t="s">
         <v>366</v>
       </c>
       <c r="H275" s="5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I275" s="5" t="b">
         <v>0</v>
@@ -13455,33 +13455,33 @@
         <v>1</v>
       </c>
       <c r="L275" s="23" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="M275" s="23" t="s">
         <v>718</v>
       </c>
       <c r="N275" s="5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="276" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B276" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D276" s="27" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E276" s="23" t="s">
         <v>366</v>
       </c>
       <c r="H276" s="5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I276" s="5" t="b">
         <v>0</v>
@@ -13494,33 +13494,33 @@
         <v>1</v>
       </c>
       <c r="L276" s="23" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="M276" s="23" t="s">
         <v>718</v>
       </c>
       <c r="N276" s="5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="277" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B277" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D277" s="27" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E277" s="23" t="s">
         <v>366</v>
       </c>
       <c r="H277" s="5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I277" s="5" t="b">
         <v>0</v>
@@ -13533,13 +13533,13 @@
         <v>1</v>
       </c>
       <c r="L277" s="23" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="M277" s="23" t="s">
         <v>725</v>
       </c>
       <c r="N277" s="5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
   </sheetData>

--- a/work-in-progress/Peppol Code Lists - Document types v9.1.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v9.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3370B237-0139-49FC-AE9C-37E4C23F9A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA29540-531F-43DA-813B-4124C991B68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25665" yWindow="0" windowWidth="26040" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="770">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -2396,6 +2396,24 @@
   </si>
   <si>
     <t>Peppol BIS Self-Billing UBL CreditNote V3</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:CreditNote-2::CreditNote##urn:cen.eu:en16931:2017#compliant#urn:peppol:france:billing:cius:1.0::2.1</t>
+  </si>
+  <si>
+    <t>France UBL CreditNote CIUS</t>
+  </si>
+  <si>
+    <t>France UBL CreditNote Extension</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:CreditNote-2::CreditNote##urn:cen.eu:en16931:2017#conformant#urn:peppol:france:billing:extended:1.0::2.1</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>TICC-371</t>
   </si>
 </sst>
 </file>
@@ -3056,11 +3074,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:N277"/>
+  <dimension ref="A1:N279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A279" sqref="A279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13542,6 +13560,84 @@
         <v>743</v>
       </c>
     </row>
+    <row r="278" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A278" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="D278" s="28" t="s">
+        <v>768</v>
+      </c>
+      <c r="E278" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="H278" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="I278" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J278" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="K278" s="23">
+        <v>1</v>
+      </c>
+      <c r="L278" s="23" t="s">
+        <v>744</v>
+      </c>
+      <c r="M278" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="N278" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A279" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="D279" s="28" t="s">
+        <v>768</v>
+      </c>
+      <c r="E279" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="H279" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="I279" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J279" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="K279" s="23">
+        <v>1</v>
+      </c>
+      <c r="L279" s="23" t="s">
+        <v>744</v>
+      </c>
+      <c r="M279" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="N279" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N268" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/work-in-progress/Peppol Code Lists - Document types v9.1.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v9.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA29540-531F-43DA-813B-4124C991B68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9139B6-A8F2-4346-972A-2473F6BF92C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25665" yWindow="0" windowWidth="26040" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="23730" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="779">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -2414,6 +2414,33 @@
   </si>
   <si>
     <t>TICC-371</t>
+  </si>
+  <si>
+    <t>AE PINT Invoice v1.0</t>
+  </si>
+  <si>
+    <t>AE PINT Credit Note v1.0</t>
+  </si>
+  <si>
+    <t>AE PINT Self-Billing Invoice v1.0</t>
+  </si>
+  <si>
+    <t>AE PINT Self-Billing Credit Note v1.0</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:peppol:pint:billing-1@ae-1::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:CreditNote-2::CreditNote##urn:peppol:pint:billing-1@ae-1::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:peppol:pint:selfbilling-1@ae-1::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:CreditNote-2::CreditNote##urn:peppol:pint:selfbilling-1@ae-1::2.1</t>
+  </si>
+  <si>
+    <t>TICC-373</t>
   </si>
 </sst>
 </file>
@@ -3074,11 +3101,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:N279"/>
+  <dimension ref="A1:N283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A279" sqref="A279"/>
+      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A283" sqref="A283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13593,7 +13620,7 @@
         <v>744</v>
       </c>
       <c r="M278" s="23" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="N278" s="5" t="s">
         <v>743</v>
@@ -13632,10 +13659,166 @@
         <v>744</v>
       </c>
       <c r="M279" s="23" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="N279" s="5" t="s">
         <v>743</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>770</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="D280" s="28" t="s">
+        <v>768</v>
+      </c>
+      <c r="E280" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="H280" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="I280" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J280" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="K280" s="23">
+        <v>3</v>
+      </c>
+      <c r="L280" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="M280" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="N280" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>771</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D281" s="28" t="s">
+        <v>768</v>
+      </c>
+      <c r="E281" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="H281" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="I281" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J281" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="K281" s="23">
+        <v>3</v>
+      </c>
+      <c r="L281" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="M281" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="N281" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>772</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="D282" s="28" t="s">
+        <v>768</v>
+      </c>
+      <c r="E282" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="H282" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="I282" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J282" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="K282" s="23">
+        <v>3</v>
+      </c>
+      <c r="L282" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="M282" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="N282" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>773</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D283" s="28" t="s">
+        <v>768</v>
+      </c>
+      <c r="E283" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="H283" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="I283" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J283" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="K283" s="23">
+        <v>3</v>
+      </c>
+      <c r="L283" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="M283" s="23" t="s">
+        <v>719</v>
+      </c>
+      <c r="N283" s="5" t="s">
+        <v>528</v>
       </c>
     </row>
   </sheetData>

--- a/work-in-progress/Peppol Code Lists - Document types v9.1.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v9.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4A264B-36C1-49C5-8155-6B5B4B9DEFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DA6A8F-7EF7-46C0-A70C-367E5877E6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="781">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -1262,9 +1262,6 @@
     <t>cenbii-procid-ubl::urn:fdc:peppol.eu:prac:bis:p009:1.1</t>
   </si>
   <si>
-    <t>Deprecation release</t>
-  </si>
-  <si>
     <t>Removal Date</t>
   </si>
   <si>
@@ -2446,6 +2443,12 @@
   </si>
   <si>
     <t>Peppol BIS Self-Billing UBL Credit Note V3</t>
+  </si>
+  <si>
+    <t>Deprecation release / per</t>
+  </si>
+  <si>
+    <t>deprecation-scheduled</t>
   </si>
 </sst>
 </file>
@@ -2525,7 +2528,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2541,6 +2544,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2569,7 +2578,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2693,6 +2702,18 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3109,8 +3130,8 @@
   <dimension ref="A1:N283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A230" sqref="A230"/>
+      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E230" sqref="E230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3119,7 +3140,7 @@
     <col min="2" max="2" width="24.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="97.28515625" style="5" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="6" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
@@ -3143,25 +3164,25 @@
         <v>120</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>350</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>779</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>400</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>401</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>107</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K1" s="22" t="s">
         <v>108</v>
@@ -3170,7 +3191,7 @@
         <v>109</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>152</v>
@@ -3210,7 +3231,7 @@
         <v>110</v>
       </c>
       <c r="M2" s="33" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N2" s="36" t="s">
         <v>138</v>
@@ -3250,7 +3271,7 @@
         <v>110</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N3" s="36" t="s">
         <v>138</v>
@@ -3290,7 +3311,7 @@
         <v>110</v>
       </c>
       <c r="M4" s="33" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N4" s="36" t="s">
         <v>138</v>
@@ -3330,7 +3351,7 @@
         <v>111</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N5" s="36" t="s">
         <v>139</v>
@@ -3370,7 +3391,7 @@
         <v>111</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N6" s="36" t="s">
         <v>140</v>
@@ -3410,7 +3431,7 @@
         <v>111</v>
       </c>
       <c r="M7" s="33" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N7" s="36" t="s">
         <v>139</v>
@@ -3450,7 +3471,7 @@
         <v>111</v>
       </c>
       <c r="M8" s="33" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N8" s="36" t="s">
         <v>141</v>
@@ -3490,7 +3511,7 @@
         <v>111</v>
       </c>
       <c r="M9" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N9" s="36" t="s">
         <v>142</v>
@@ -3533,7 +3554,7 @@
         <v>111</v>
       </c>
       <c r="M10" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N10" s="36" t="s">
         <v>143</v>
@@ -3573,7 +3594,7 @@
         <v>111</v>
       </c>
       <c r="M11" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N11" s="36" t="s">
         <v>143</v>
@@ -3613,7 +3634,7 @@
         <v>111</v>
       </c>
       <c r="M12" s="33" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N12" s="36" t="s">
         <v>144</v>
@@ -3653,7 +3674,7 @@
         <v>111</v>
       </c>
       <c r="M13" s="33" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N13" s="36" t="s">
         <v>145</v>
@@ -3693,7 +3714,7 @@
         <v>111</v>
       </c>
       <c r="M14" s="33" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N14" s="36" t="s">
         <v>146</v>
@@ -3701,7 +3722,7 @@
     </row>
     <row r="15" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B15" s="31" t="s">
         <v>56</v>
@@ -3733,7 +3754,7 @@
         <v>111</v>
       </c>
       <c r="M15" s="33" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N15" s="36" t="s">
         <v>146</v>
@@ -3773,7 +3794,7 @@
         <v>111</v>
       </c>
       <c r="M16" s="33" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N16" s="36" t="s">
         <v>146</v>
@@ -3813,7 +3834,7 @@
         <v>111</v>
       </c>
       <c r="M17" s="33" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N17" s="36" t="s">
         <v>147</v>
@@ -3821,7 +3842,7 @@
     </row>
     <row r="18" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B18" s="31" t="s">
         <v>56</v>
@@ -3853,7 +3874,7 @@
         <v>111</v>
       </c>
       <c r="M18" s="33" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N18" s="36" t="s">
         <v>147</v>
@@ -3893,7 +3914,7 @@
         <v>111</v>
       </c>
       <c r="M19" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N19" s="36" t="s">
         <v>148</v>
@@ -3933,7 +3954,7 @@
         <v>111</v>
       </c>
       <c r="M20" s="33" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N20" s="36" t="s">
         <v>148</v>
@@ -3973,7 +3994,7 @@
         <v>111</v>
       </c>
       <c r="M21" s="33" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N21" s="36" t="s">
         <v>148</v>
@@ -4013,7 +4034,7 @@
         <v>111</v>
       </c>
       <c r="M22" s="33" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N22" s="36" t="s">
         <v>148</v>
@@ -4021,7 +4042,7 @@
     </row>
     <row r="23" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B23" s="31" t="s">
         <v>56</v>
@@ -4053,7 +4074,7 @@
         <v>111</v>
       </c>
       <c r="M23" s="33" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N23" s="36" t="s">
         <v>148</v>
@@ -4093,7 +4114,7 @@
         <v>111</v>
       </c>
       <c r="M24" s="33" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N24" s="36" t="s">
         <v>148</v>
@@ -4131,7 +4152,7 @@
         <v>111</v>
       </c>
       <c r="M25" s="33" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N25" s="36" t="s">
         <v>144</v>
@@ -4164,7 +4185,7 @@
         <v>111</v>
       </c>
       <c r="M26" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>147</v>
@@ -4204,7 +4225,7 @@
         <v>111</v>
       </c>
       <c r="M27" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N27" s="36" t="s">
         <v>149</v>
@@ -4247,7 +4268,7 @@
         <v>111</v>
       </c>
       <c r="M28" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N28" s="36" t="s">
         <v>149</v>
@@ -4287,7 +4308,7 @@
         <v>111</v>
       </c>
       <c r="M29" s="33" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N29" s="36" t="s">
         <v>149</v>
@@ -4327,7 +4348,7 @@
         <v>111</v>
       </c>
       <c r="M30" s="33" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="N30" s="36" t="s">
         <v>150</v>
@@ -4367,7 +4388,7 @@
         <v>111</v>
       </c>
       <c r="M31" s="33" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="N31" s="36" t="s">
         <v>151</v>
@@ -4375,7 +4396,7 @@
     </row>
     <row r="32" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>56</v>
@@ -4390,7 +4411,7 @@
         <v>352</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I32" s="5" t="b">
         <v>0</v>
@@ -4406,15 +4427,15 @@
         <v>111</v>
       </c>
       <c r="M32" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>56</v>
@@ -4429,7 +4450,7 @@
         <v>352</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I33" s="5" t="b">
         <v>0</v>
@@ -4445,10 +4466,10 @@
         <v>111</v>
       </c>
       <c r="M33" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -4478,7 +4499,7 @@
         <v>111</v>
       </c>
       <c r="M34" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>149</v>
@@ -4519,7 +4540,7 @@
         <v>111</v>
       </c>
       <c r="M35" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N35" s="36" t="s">
         <v>149</v>
@@ -4555,7 +4576,7 @@
         <v>111</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N36" s="5" t="s">
         <v>149</v>
@@ -4563,7 +4584,7 @@
     </row>
     <row r="37" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>56</v>
@@ -4591,7 +4612,7 @@
         <v>111</v>
       </c>
       <c r="M37" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N37" s="7" t="s">
         <v>123</v>
@@ -4599,7 +4620,7 @@
     </row>
     <row r="38" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B38" s="31" t="s">
         <v>56</v>
@@ -4614,11 +4635,11 @@
         <v>351</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G38" s="35"/>
       <c r="H38" s="36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I38" s="36" t="b">
         <v>0</v>
@@ -4634,7 +4655,7 @@
         <v>110</v>
       </c>
       <c r="M38" s="33" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N38" s="36" t="s">
         <v>137</v>
@@ -4642,7 +4663,7 @@
     </row>
     <row r="39" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B39" s="31" t="s">
         <v>56</v>
@@ -4657,11 +4678,11 @@
         <v>351</v>
       </c>
       <c r="F39" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G39" s="35"/>
       <c r="H39" s="36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I39" s="36" t="b">
         <v>0</v>
@@ -4677,7 +4698,7 @@
         <v>110</v>
       </c>
       <c r="M39" s="33" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N39" s="36" t="s">
         <v>137</v>
@@ -4685,7 +4706,7 @@
     </row>
     <row r="40" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B40" s="31" t="s">
         <v>56</v>
@@ -4700,11 +4721,11 @@
         <v>351</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G40" s="35"/>
       <c r="H40" s="36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I40" s="36" t="b">
         <v>0</v>
@@ -4720,7 +4741,7 @@
         <v>110</v>
       </c>
       <c r="M40" s="33" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N40" s="36" t="s">
         <v>136</v>
@@ -4728,7 +4749,7 @@
     </row>
     <row r="41" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="36" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B41" s="31" t="s">
         <v>56</v>
@@ -4743,11 +4764,11 @@
         <v>351</v>
       </c>
       <c r="F41" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G41" s="35"/>
       <c r="H41" s="36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I41" s="36" t="b">
         <v>0</v>
@@ -4763,7 +4784,7 @@
         <v>110</v>
       </c>
       <c r="M41" s="33" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N41" s="36" t="s">
         <v>136</v>
@@ -4771,7 +4792,7 @@
     </row>
     <row r="42" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="36" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B42" s="31" t="s">
         <v>56</v>
@@ -4786,11 +4807,11 @@
         <v>351</v>
       </c>
       <c r="F42" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G42" s="35"/>
       <c r="H42" s="36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I42" s="36" t="b">
         <v>0</v>
@@ -4806,7 +4827,7 @@
         <v>110</v>
       </c>
       <c r="M42" s="33" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N42" s="36" t="s">
         <v>135</v>
@@ -4814,7 +4835,7 @@
     </row>
     <row r="43" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="36" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B43" s="31" t="s">
         <v>56</v>
@@ -4829,11 +4850,11 @@
         <v>351</v>
       </c>
       <c r="F43" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G43" s="35"/>
       <c r="H43" s="36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I43" s="36" t="b">
         <v>0</v>
@@ -4849,7 +4870,7 @@
         <v>110</v>
       </c>
       <c r="M43" s="33" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N43" s="36" t="s">
         <v>135</v>
@@ -4869,7 +4890,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F44" s="17">
         <v>5</v>
@@ -4878,7 +4899,7 @@
         <v>45070</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I44" s="15" t="b">
         <v>0</v>
@@ -4892,7 +4913,7 @@
         <v>111</v>
       </c>
       <c r="M44" s="24" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N44" s="19" t="s">
         <v>123</v>
@@ -4900,7 +4921,7 @@
     </row>
     <row r="45" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>56</v>
@@ -4912,7 +4933,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F45" s="17">
         <v>5</v>
@@ -4921,7 +4942,7 @@
         <v>45070</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I45" s="15" t="b">
         <v>0</v>
@@ -4935,7 +4956,7 @@
         <v>111</v>
       </c>
       <c r="M45" s="24" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N45" s="19" t="s">
         <v>123</v>
@@ -4955,7 +4976,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F46" s="17">
         <v>5</v>
@@ -4964,7 +4985,7 @@
         <v>45070</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I46" s="15" t="b">
         <v>0</v>
@@ -4978,7 +4999,7 @@
         <v>111</v>
       </c>
       <c r="M46" s="24" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N46" s="19" t="s">
         <v>123</v>
@@ -5001,7 +5022,7 @@
         <v>352</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I47" s="5" t="b">
         <v>0</v>
@@ -5014,7 +5035,7 @@
         <v>111</v>
       </c>
       <c r="M47" s="23" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N47" s="7" t="s">
         <v>121</v>
@@ -5037,7 +5058,7 @@
         <v>352</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I48" s="5" t="b">
         <v>0</v>
@@ -5050,7 +5071,7 @@
         <v>111</v>
       </c>
       <c r="M48" s="23" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="N48" s="7" t="s">
         <v>122</v>
@@ -5073,7 +5094,7 @@
         <v>352</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I49" s="5" t="b">
         <v>0</v>
@@ -5086,7 +5107,7 @@
         <v>111</v>
       </c>
       <c r="M49" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N49" s="7" t="s">
         <v>123</v>
@@ -5109,7 +5130,7 @@
         <v>352</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I50" s="5" t="b">
         <v>0</v>
@@ -5122,7 +5143,7 @@
         <v>111</v>
       </c>
       <c r="M50" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N50" s="7" t="s">
         <v>123</v>
@@ -5130,7 +5151,7 @@
     </row>
     <row r="51" spans="1:14" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B51" s="31" t="s">
         <v>56</v>
@@ -5162,7 +5183,7 @@
         <v>111</v>
       </c>
       <c r="M51" s="33" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N51" s="36" t="s">
         <v>124</v>
@@ -5170,7 +5191,7 @@
     </row>
     <row r="52" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>56</v>
@@ -5198,7 +5219,7 @@
         <v>111</v>
       </c>
       <c r="M52" s="23" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N52" s="5" t="s">
         <v>125</v>
@@ -5206,7 +5227,7 @@
     </row>
     <row r="53" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>56</v>
@@ -5234,7 +5255,7 @@
         <v>111</v>
       </c>
       <c r="M53" s="23" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="N53" s="7" t="s">
         <v>126</v>
@@ -5242,7 +5263,7 @@
     </row>
     <row r="54" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>56</v>
@@ -5257,7 +5278,7 @@
         <v>352</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I54" s="5" t="b">
         <v>0</v>
@@ -5273,15 +5294,15 @@
         <v>111</v>
       </c>
       <c r="M54" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>56</v>
@@ -5296,7 +5317,7 @@
         <v>352</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I55" s="5" t="b">
         <v>0</v>
@@ -5312,15 +5333,15 @@
         <v>111</v>
       </c>
       <c r="M55" s="23" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>56</v>
@@ -5348,7 +5369,7 @@
         <v>111</v>
       </c>
       <c r="M56" s="23" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N56" s="7" t="s">
         <v>127</v>
@@ -5356,7 +5377,7 @@
     </row>
     <row r="57" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>56</v>
@@ -5384,7 +5405,7 @@
         <v>111</v>
       </c>
       <c r="M57" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N57" s="7" t="s">
         <v>128</v>
@@ -5392,7 +5413,7 @@
     </row>
     <row r="58" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>56</v>
@@ -5420,7 +5441,7 @@
         <v>111</v>
       </c>
       <c r="M58" s="23" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="N58" s="7" t="s">
         <v>129</v>
@@ -5428,7 +5449,7 @@
     </row>
     <row r="59" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>56</v>
@@ -5456,7 +5477,7 @@
         <v>111</v>
       </c>
       <c r="M59" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N59" s="7" t="s">
         <v>130</v>
@@ -5464,7 +5485,7 @@
     </row>
     <row r="60" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>56</v>
@@ -5492,7 +5513,7 @@
         <v>111</v>
       </c>
       <c r="M60" s="23" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="N60" s="7" t="s">
         <v>131</v>
@@ -5525,7 +5546,7 @@
         <v>111</v>
       </c>
       <c r="M61" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N61" s="7" t="s">
         <v>123</v>
@@ -5533,7 +5554,7 @@
     </row>
     <row r="62" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>56</v>
@@ -5558,7 +5579,7 @@
         <v>111</v>
       </c>
       <c r="M62" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N62" s="7" t="s">
         <v>123</v>
@@ -5566,7 +5587,7 @@
     </row>
     <row r="63" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>56</v>
@@ -5594,7 +5615,7 @@
         <v>111</v>
       </c>
       <c r="M63" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N63" s="7" t="s">
         <v>123</v>
@@ -5621,7 +5642,7 @@
       </c>
       <c r="G64" s="35"/>
       <c r="H64" s="36" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I64" s="36" t="b">
         <v>0</v>
@@ -5637,7 +5658,7 @@
         <v>111</v>
       </c>
       <c r="M64" s="33" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N64" s="39" t="s">
         <v>123</v>
@@ -5645,7 +5666,7 @@
     </row>
     <row r="65" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>56</v>
@@ -5660,7 +5681,7 @@
         <v>352</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I65" s="5" t="b">
         <v>0</v>
@@ -5676,7 +5697,7 @@
         <v>111</v>
       </c>
       <c r="M65" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N65" s="7" t="s">
         <v>123</v>
@@ -5696,16 +5717,16 @@
         <v>5</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G66" s="18">
         <v>45070</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I66" s="15" t="b">
         <v>0</v>
@@ -5719,7 +5740,7 @@
         <v>111</v>
       </c>
       <c r="M66" s="24" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N66" s="19" t="s">
         <v>123</v>
@@ -5727,7 +5748,7 @@
     </row>
     <row r="67" spans="1:14" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B67" s="16" t="s">
         <v>56</v>
@@ -5739,16 +5760,16 @@
         <v>5</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G67" s="18">
         <v>45070</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I67" s="15" t="b">
         <v>0</v>
@@ -5762,7 +5783,7 @@
         <v>111</v>
       </c>
       <c r="M67" s="24" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N67" s="19" t="s">
         <v>123</v>
@@ -5782,16 +5803,16 @@
         <v>5</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G68" s="18">
         <v>45070</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I68" s="15" t="b">
         <v>0</v>
@@ -5805,7 +5826,7 @@
         <v>111</v>
       </c>
       <c r="M68" s="24" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N68" s="19" t="s">
         <v>123</v>
@@ -5841,7 +5862,7 @@
         <v>111</v>
       </c>
       <c r="M69" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N69" s="7" t="s">
         <v>132</v>
@@ -5877,7 +5898,7 @@
         <v>111</v>
       </c>
       <c r="M70" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N70" s="7" t="s">
         <v>133</v>
@@ -5913,7 +5934,7 @@
         <v>111</v>
       </c>
       <c r="M71" s="23" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="N71" s="7" t="s">
         <v>134</v>
@@ -5921,7 +5942,7 @@
     </row>
     <row r="72" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>56</v>
@@ -5952,7 +5973,7 @@
         <v>111</v>
       </c>
       <c r="M72" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N72" s="7" t="s">
         <v>123</v>
@@ -5960,7 +5981,7 @@
     </row>
     <row r="73" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>56</v>
@@ -5991,7 +6012,7 @@
         <v>111</v>
       </c>
       <c r="M73" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N73" s="7" t="s">
         <v>123</v>
@@ -6027,7 +6048,7 @@
         <v>111</v>
       </c>
       <c r="M74" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N74" s="7" t="s">
         <v>234</v>
@@ -6035,7 +6056,7 @@
     </row>
     <row r="75" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>56</v>
@@ -6063,7 +6084,7 @@
         <v>111</v>
       </c>
       <c r="M75" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N75" s="7" t="s">
         <v>234</v>
@@ -6083,16 +6104,16 @@
         <v>6</v>
       </c>
       <c r="E76" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G76" s="18">
         <v>45292</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I76" s="15" t="b">
         <v>0</v>
@@ -6106,7 +6127,7 @@
         <v>111</v>
       </c>
       <c r="M76" s="24" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N76" s="19" t="s">
         <v>144</v>
@@ -6126,16 +6147,16 @@
         <v>6</v>
       </c>
       <c r="E77" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G77" s="18">
         <v>45292</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I77" s="15" t="b">
         <v>0</v>
@@ -6149,7 +6170,7 @@
         <v>111</v>
       </c>
       <c r="M77" s="24" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N77" s="19" t="s">
         <v>143</v>
@@ -6169,7 +6190,7 @@
         <v>7</v>
       </c>
       <c r="E78" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F78" s="20" t="s">
         <v>193</v>
@@ -6178,7 +6199,7 @@
         <v>45070</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I78" s="15" t="b">
         <v>0</v>
@@ -6192,7 +6213,7 @@
         <v>111</v>
       </c>
       <c r="M78" s="24" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N78" s="19" t="s">
         <v>123</v>
@@ -6200,7 +6221,7 @@
     </row>
     <row r="79" spans="1:14" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B79" s="16" t="s">
         <v>56</v>
@@ -6212,7 +6233,7 @@
         <v>7</v>
       </c>
       <c r="E79" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F79" s="20" t="s">
         <v>193</v>
@@ -6221,7 +6242,7 @@
         <v>45070</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I79" s="15" t="b">
         <v>0</v>
@@ -6235,7 +6256,7 @@
         <v>111</v>
       </c>
       <c r="M79" s="24" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N79" s="19" t="s">
         <v>123</v>
@@ -6255,7 +6276,7 @@
         <v>7</v>
       </c>
       <c r="E80" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F80" s="20" t="s">
         <v>193</v>
@@ -6264,7 +6285,7 @@
         <v>45070</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I80" s="15" t="b">
         <v>0</v>
@@ -6278,7 +6299,7 @@
         <v>111</v>
       </c>
       <c r="M80" s="24" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N80" s="19" t="s">
         <v>123</v>
@@ -6314,7 +6335,7 @@
         <v>111</v>
       </c>
       <c r="M81" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N81" s="7" t="s">
         <v>123</v>
@@ -6322,7 +6343,7 @@
     </row>
     <row r="82" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>56</v>
@@ -6350,7 +6371,7 @@
         <v>111</v>
       </c>
       <c r="M82" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N82" s="7" t="s">
         <v>123</v>
@@ -6370,7 +6391,7 @@
         <v>7</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F83" s="21" t="s">
         <v>230</v>
@@ -6379,7 +6400,7 @@
         <v>45070</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I83" s="15" t="b">
         <v>0</v>
@@ -6393,7 +6414,7 @@
         <v>111</v>
       </c>
       <c r="M83" s="24" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N83" s="19" t="s">
         <v>123</v>
@@ -6429,7 +6450,7 @@
         <v>111</v>
       </c>
       <c r="M84" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N84" s="7" t="s">
         <v>123</v>
@@ -6449,7 +6470,7 @@
         <v>7</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F85" s="20" t="s">
         <v>193</v>
@@ -6458,7 +6479,7 @@
         <v>45070</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I85" s="15" t="b">
         <v>0</v>
@@ -6472,7 +6493,7 @@
         <v>111</v>
       </c>
       <c r="M85" s="24" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N85" s="19" t="s">
         <v>123</v>
@@ -6480,7 +6501,7 @@
     </row>
     <row r="86" spans="1:14" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B86" s="16" t="s">
         <v>56</v>
@@ -6492,7 +6513,7 @@
         <v>7</v>
       </c>
       <c r="E86" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F86" s="20" t="s">
         <v>193</v>
@@ -6501,7 +6522,7 @@
         <v>45070</v>
       </c>
       <c r="H86" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I86" s="15" t="b">
         <v>0</v>
@@ -6515,7 +6536,7 @@
         <v>111</v>
       </c>
       <c r="M86" s="24" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N86" s="19" t="s">
         <v>123</v>
@@ -6535,7 +6556,7 @@
         <v>7</v>
       </c>
       <c r="E87" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F87" s="20" t="s">
         <v>193</v>
@@ -6544,7 +6565,7 @@
         <v>45070</v>
       </c>
       <c r="H87" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I87" s="15" t="b">
         <v>0</v>
@@ -6558,7 +6579,7 @@
         <v>111</v>
       </c>
       <c r="M87" s="24" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N87" s="19" t="s">
         <v>123</v>
@@ -6594,7 +6615,7 @@
         <v>111</v>
       </c>
       <c r="M88" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N88" s="7" t="s">
         <v>123</v>
@@ -6635,7 +6656,7 @@
         <v>111</v>
       </c>
       <c r="M89" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N89" s="36" t="s">
         <v>177</v>
@@ -6676,7 +6697,7 @@
         <v>111</v>
       </c>
       <c r="M90" s="33" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="N90" s="36" t="s">
         <v>177</v>
@@ -6717,7 +6738,7 @@
         <v>111</v>
       </c>
       <c r="M91" s="33" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="N91" s="36" t="s">
         <v>177</v>
@@ -6758,7 +6779,7 @@
         <v>111</v>
       </c>
       <c r="M92" s="33" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N92" s="36" t="s">
         <v>177</v>
@@ -6794,7 +6815,7 @@
         <v>111</v>
       </c>
       <c r="M93" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N93" s="5" t="s">
         <v>189</v>
@@ -6802,7 +6823,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>56</v>
@@ -6830,7 +6851,7 @@
         <v>111</v>
       </c>
       <c r="M94" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N94" s="5" t="s">
         <v>189</v>
@@ -6866,7 +6887,7 @@
         <v>111</v>
       </c>
       <c r="M95" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N95" s="5" t="s">
         <v>189</v>
@@ -6902,7 +6923,7 @@
         <v>111</v>
       </c>
       <c r="M96" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N96" s="7" t="s">
         <v>123</v>
@@ -6910,7 +6931,7 @@
     </row>
     <row r="97" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>56</v>
@@ -6938,7 +6959,7 @@
         <v>111</v>
       </c>
       <c r="M97" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N97" s="7" t="s">
         <v>123</v>
@@ -6958,7 +6979,7 @@
         <v>193</v>
       </c>
       <c r="E98" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F98" s="21" t="s">
         <v>230</v>
@@ -6967,7 +6988,7 @@
         <v>45070</v>
       </c>
       <c r="H98" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I98" s="15" t="b">
         <v>0</v>
@@ -6981,7 +7002,7 @@
         <v>111</v>
       </c>
       <c r="M98" s="24" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N98" s="19" t="s">
         <v>123</v>
@@ -7017,7 +7038,7 @@
         <v>111</v>
       </c>
       <c r="M99" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N99" s="7" t="s">
         <v>123</v>
@@ -7053,7 +7074,7 @@
         <v>111</v>
       </c>
       <c r="M100" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N100" s="5" t="s">
         <v>235</v>
@@ -7089,7 +7110,7 @@
         <v>111</v>
       </c>
       <c r="M101" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N101" s="7" t="s">
         <v>128</v>
@@ -7125,7 +7146,7 @@
         <v>111</v>
       </c>
       <c r="M102" s="23" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="N102" s="10" t="s">
         <v>213</v>
@@ -7145,16 +7166,16 @@
         <v>215</v>
       </c>
       <c r="E103" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F103" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G103" s="18">
         <v>45473</v>
       </c>
       <c r="H103" s="15" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I103" s="15" t="b">
         <v>0</v>
@@ -7166,7 +7187,7 @@
       <c r="K103" s="24"/>
       <c r="L103" s="24"/>
       <c r="M103" s="24" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N103" s="19" t="s">
         <v>217</v>
@@ -7202,10 +7223,10 @@
         <v>111</v>
       </c>
       <c r="M104" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N104" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -7238,7 +7259,7 @@
         <v>111</v>
       </c>
       <c r="M105" s="23" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="N105" s="5" t="s">
         <v>177</v>
@@ -7274,7 +7295,7 @@
         <v>111</v>
       </c>
       <c r="M106" s="23" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="N106" s="5" t="s">
         <v>177</v>
@@ -7310,10 +7331,10 @@
         <v>111</v>
       </c>
       <c r="M107" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N107" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -7346,10 +7367,10 @@
         <v>349</v>
       </c>
       <c r="M108" s="25" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N108" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -7382,10 +7403,10 @@
         <v>349</v>
       </c>
       <c r="M109" s="25" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N109" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -7418,10 +7439,10 @@
         <v>349</v>
       </c>
       <c r="M110" s="25" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N110" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -7454,10 +7475,10 @@
         <v>349</v>
       </c>
       <c r="M111" s="25" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N111" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -7490,10 +7511,10 @@
         <v>349</v>
       </c>
       <c r="M112" s="25" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N112" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -7526,10 +7547,10 @@
         <v>349</v>
       </c>
       <c r="M113" s="25" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N113" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -7562,10 +7583,10 @@
         <v>349</v>
       </c>
       <c r="M114" s="25" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N114" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="115" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -7598,10 +7619,10 @@
         <v>349</v>
       </c>
       <c r="M115" s="25" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N115" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -7634,10 +7655,10 @@
         <v>349</v>
       </c>
       <c r="M116" s="25" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N116" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -7670,10 +7691,10 @@
         <v>349</v>
       </c>
       <c r="M117" s="25" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N117" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="118" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -7706,10 +7727,10 @@
         <v>349</v>
       </c>
       <c r="M118" s="25" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N118" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -7742,10 +7763,10 @@
         <v>349</v>
       </c>
       <c r="M119" s="25" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N119" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -7778,10 +7799,10 @@
         <v>349</v>
       </c>
       <c r="M120" s="25" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N120" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -7814,10 +7835,10 @@
         <v>349</v>
       </c>
       <c r="M121" s="25" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N121" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -7850,10 +7871,10 @@
         <v>349</v>
       </c>
       <c r="M122" s="25" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N122" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -7886,7 +7907,7 @@
         <v>349</v>
       </c>
       <c r="M123" s="25" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N123" s="5" t="s">
         <v>284</v>
@@ -7922,7 +7943,7 @@
         <v>349</v>
       </c>
       <c r="M124" s="25" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N124" s="5" t="s">
         <v>285</v>
@@ -7958,7 +7979,7 @@
         <v>349</v>
       </c>
       <c r="M125" s="25" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N125" s="5" t="s">
         <v>285</v>
@@ -7994,7 +8015,7 @@
         <v>349</v>
       </c>
       <c r="M126" s="25" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N126" s="5" t="s">
         <v>285</v>
@@ -8030,7 +8051,7 @@
         <v>349</v>
       </c>
       <c r="M127" s="25" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N127" s="5" t="s">
         <v>286</v>
@@ -8066,7 +8087,7 @@
         <v>349</v>
       </c>
       <c r="M128" s="25" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N128" s="5" t="s">
         <v>286</v>
@@ -8102,7 +8123,7 @@
         <v>349</v>
       </c>
       <c r="M129" s="25" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N129" s="5" t="s">
         <v>286</v>
@@ -8110,13 +8131,13 @@
     </row>
     <row r="130" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D130" s="28" t="s">
         <v>282</v>
@@ -8140,7 +8161,7 @@
         <v>110</v>
       </c>
       <c r="M130" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N130" s="5" t="s">
         <v>290</v>
@@ -8148,7 +8169,7 @@
     </row>
     <row r="131" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>56</v>
@@ -8178,7 +8199,7 @@
         <v>110</v>
       </c>
       <c r="M131" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N131" s="5" t="s">
         <v>290</v>
@@ -8186,13 +8207,13 @@
     </row>
     <row r="132" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D132" s="28" t="s">
         <v>282</v>
@@ -8216,7 +8237,7 @@
         <v>110</v>
       </c>
       <c r="M132" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N132" s="5" t="s">
         <v>291</v>
@@ -8224,7 +8245,7 @@
     </row>
     <row r="133" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>56</v>
@@ -8254,7 +8275,7 @@
         <v>110</v>
       </c>
       <c r="M133" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N133" s="5" t="s">
         <v>291</v>
@@ -8289,7 +8310,7 @@
         <v>111</v>
       </c>
       <c r="M134" s="23" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N134" s="5" t="s">
         <v>141</v>
@@ -8324,7 +8345,7 @@
         <v>111</v>
       </c>
       <c r="M135" s="23" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="N135" s="5" t="s">
         <v>141</v>
@@ -8359,7 +8380,7 @@
         <v>111</v>
       </c>
       <c r="M136" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N136" s="5" t="s">
         <v>149</v>
@@ -8394,7 +8415,7 @@
         <v>111</v>
       </c>
       <c r="M137" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N137" s="5" t="s">
         <v>149</v>
@@ -8429,7 +8450,7 @@
         <v>111</v>
       </c>
       <c r="M138" s="23" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="N138" s="5" t="s">
         <v>150</v>
@@ -8464,7 +8485,7 @@
         <v>111</v>
       </c>
       <c r="M139" s="23" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="N139" s="5" t="s">
         <v>321</v>
@@ -8499,7 +8520,7 @@
         <v>111</v>
       </c>
       <c r="M140" s="23" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N140" s="5" t="s">
         <v>322</v>
@@ -8534,7 +8555,7 @@
         <v>111</v>
       </c>
       <c r="M141" s="23" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="N141" s="5" t="s">
         <v>322</v>
@@ -8569,7 +8590,7 @@
         <v>111</v>
       </c>
       <c r="M142" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N142" s="5" t="s">
         <v>323</v>
@@ -8604,7 +8625,7 @@
         <v>111</v>
       </c>
       <c r="M143" s="23" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="N143" s="5" t="s">
         <v>324</v>
@@ -8639,7 +8660,7 @@
         <v>111</v>
       </c>
       <c r="M144" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N144" s="5" t="s">
         <v>325</v>
@@ -8674,7 +8695,7 @@
         <v>111</v>
       </c>
       <c r="M145" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N145" s="5" t="s">
         <v>326</v>
@@ -8709,7 +8730,7 @@
         <v>111</v>
       </c>
       <c r="M146" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N146" s="5" t="s">
         <v>327</v>
@@ -8744,7 +8765,7 @@
         <v>111</v>
       </c>
       <c r="M147" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N147" s="5" t="s">
         <v>327</v>
@@ -8779,7 +8800,7 @@
         <v>111</v>
       </c>
       <c r="M148" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N148" s="7" t="s">
         <v>123</v>
@@ -8787,7 +8808,7 @@
     </row>
     <row r="149" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>56</v>
@@ -8814,7 +8835,7 @@
         <v>111</v>
       </c>
       <c r="M149" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N149" s="7" t="s">
         <v>123</v>
@@ -8849,7 +8870,7 @@
         <v>111</v>
       </c>
       <c r="M150" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N150" s="7" t="s">
         <v>123</v>
@@ -8884,7 +8905,7 @@
         <v>111</v>
       </c>
       <c r="M151" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N151" s="7" t="s">
         <v>123</v>
@@ -8892,7 +8913,7 @@
     </row>
     <row r="152" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>56</v>
@@ -8919,7 +8940,7 @@
         <v>111</v>
       </c>
       <c r="M152" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N152" s="7" t="s">
         <v>123</v>
@@ -8954,7 +8975,7 @@
         <v>111</v>
       </c>
       <c r="M153" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N153" s="7" t="s">
         <v>123</v>
@@ -8989,7 +9010,7 @@
         <v>111</v>
       </c>
       <c r="M154" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N154" s="5" t="s">
         <v>356</v>
@@ -9024,7 +9045,7 @@
         <v>111</v>
       </c>
       <c r="M155" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N155" s="5" t="s">
         <v>355</v>
@@ -9059,7 +9080,7 @@
         <v>111</v>
       </c>
       <c r="M156" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N156" s="5" t="s">
         <v>357</v>
@@ -9097,7 +9118,7 @@
         <v>110</v>
       </c>
       <c r="M157" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N157" s="5" t="s">
         <v>391</v>
@@ -9135,7 +9156,7 @@
         <v>110</v>
       </c>
       <c r="M158" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N158" s="5" t="s">
         <v>391</v>
@@ -9173,7 +9194,7 @@
         <v>110</v>
       </c>
       <c r="M159" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N159" s="5" t="s">
         <v>392</v>
@@ -9211,7 +9232,7 @@
         <v>110</v>
       </c>
       <c r="M160" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N160" s="5" t="s">
         <v>392</v>
@@ -9249,7 +9270,7 @@
         <v>110</v>
       </c>
       <c r="M161" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N161" s="5" t="s">
         <v>393</v>
@@ -9287,7 +9308,7 @@
         <v>110</v>
       </c>
       <c r="M162" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N162" s="5" t="s">
         <v>393</v>
@@ -9301,7 +9322,7 @@
         <v>56</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D163" s="28" t="s">
         <v>282</v>
@@ -9325,7 +9346,7 @@
         <v>110</v>
       </c>
       <c r="M163" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N163" s="5" t="s">
         <v>394</v>
@@ -9339,7 +9360,7 @@
         <v>56</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D164" s="28" t="s">
         <v>282</v>
@@ -9363,7 +9384,7 @@
         <v>110</v>
       </c>
       <c r="M164" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N164" s="5" t="s">
         <v>394</v>
@@ -9377,7 +9398,7 @@
         <v>56</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D165" s="28" t="s">
         <v>282</v>
@@ -9401,7 +9422,7 @@
         <v>110</v>
       </c>
       <c r="M165" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N165" s="5" t="s">
         <v>395</v>
@@ -9439,7 +9460,7 @@
         <v>110</v>
       </c>
       <c r="M166" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N166" s="5" t="s">
         <v>395</v>
@@ -9453,7 +9474,7 @@
         <v>56</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D167" s="28" t="s">
         <v>282</v>
@@ -9477,7 +9498,7 @@
         <v>110</v>
       </c>
       <c r="M167" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N167" s="5" t="s">
         <v>396</v>
@@ -9515,7 +9536,7 @@
         <v>110</v>
       </c>
       <c r="M168" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N168" s="5" t="s">
         <v>396</v>
@@ -9529,7 +9550,7 @@
         <v>56</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D169" s="28" t="s">
         <v>282</v>
@@ -9553,7 +9574,7 @@
         <v>110</v>
       </c>
       <c r="M169" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N169" s="5" t="s">
         <v>397</v>
@@ -9591,7 +9612,7 @@
         <v>110</v>
       </c>
       <c r="M170" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N170" s="5" t="s">
         <v>397</v>
@@ -9605,7 +9626,7 @@
         <v>56</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D171" s="28" t="s">
         <v>282</v>
@@ -9629,7 +9650,7 @@
         <v>110</v>
       </c>
       <c r="M171" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N171" s="5" t="s">
         <v>398</v>
@@ -9667,7 +9688,7 @@
         <v>110</v>
       </c>
       <c r="M172" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N172" s="5" t="s">
         <v>398</v>
@@ -9675,13 +9696,13 @@
     </row>
     <row r="173" spans="1:14" s="36" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A173" s="36" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B173" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C173" s="36" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D173" s="37" t="s">
         <v>282</v>
@@ -9690,11 +9711,11 @@
         <v>351</v>
       </c>
       <c r="F173" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G173" s="35"/>
       <c r="H173" s="36" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I173" s="36" t="b">
         <v>0</v>
@@ -9709,7 +9730,7 @@
         <v>110</v>
       </c>
       <c r="M173" s="33" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N173" s="36" t="s">
         <v>399</v>
@@ -9723,16 +9744,16 @@
         <v>56</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D174" s="28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E174" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I174" s="5" t="b">
         <v>0</v>
@@ -9747,7 +9768,7 @@
         <v>110</v>
       </c>
       <c r="M174" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N174" s="5" t="s">
         <v>399</v>
@@ -9755,22 +9776,22 @@
     </row>
     <row r="175" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D175" s="28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E175" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I175" s="5" t="b">
         <v>0</v>
@@ -9782,7 +9803,7 @@
         <v>111</v>
       </c>
       <c r="M175" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N175" s="7" t="s">
         <v>123</v>
@@ -9790,22 +9811,22 @@
     </row>
     <row r="176" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D176" s="28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E176" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I176" s="5" t="b">
         <v>0</v>
@@ -9817,7 +9838,7 @@
         <v>111</v>
       </c>
       <c r="M176" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N176" s="7" t="s">
         <v>123</v>
@@ -9825,22 +9846,22 @@
     </row>
     <row r="177" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D177" s="28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E177" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I177" s="5" t="b">
         <v>0</v>
@@ -9852,7 +9873,7 @@
         <v>111</v>
       </c>
       <c r="M177" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N177" s="7" t="s">
         <v>123</v>
@@ -9860,22 +9881,22 @@
     </row>
     <row r="178" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D178" s="28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E178" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I178" s="5" t="b">
         <v>0</v>
@@ -9887,7 +9908,7 @@
         <v>111</v>
       </c>
       <c r="M178" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N178" s="7" t="s">
         <v>123</v>
@@ -9895,22 +9916,22 @@
     </row>
     <row r="179" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D179" s="28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E179" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I179" s="5" t="b">
         <v>0</v>
@@ -9922,7 +9943,7 @@
         <v>111</v>
       </c>
       <c r="M179" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N179" s="7" t="s">
         <v>123</v>
@@ -9930,22 +9951,22 @@
     </row>
     <row r="180" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D180" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="B180" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="D180" s="28" t="s">
-        <v>416</v>
-      </c>
       <c r="E180" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I180" s="5" t="b">
         <v>0</v>
@@ -9957,7 +9978,7 @@
         <v>111</v>
       </c>
       <c r="M180" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N180" s="7" t="s">
         <v>123</v>
@@ -9965,26 +9986,26 @@
     </row>
     <row r="181" spans="1:14" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="36" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B181" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C181" s="36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D181" s="37" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E181" s="33" t="s">
         <v>351</v>
       </c>
       <c r="F181" s="40" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G181" s="35"/>
       <c r="H181" s="36" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I181" s="36" t="b">
         <v>0</v>
@@ -9994,37 +10015,37 @@
       </c>
       <c r="K181" s="33"/>
       <c r="L181" s="33" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M181" s="33" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="N181" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="182" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="36" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B182" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C182" s="36" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D182" s="37" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E182" s="33" t="s">
         <v>351</v>
       </c>
       <c r="F182" s="40" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G182" s="35"/>
       <c r="H182" s="36" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I182" s="36" t="b">
         <v>0</v>
@@ -10034,33 +10055,33 @@
       </c>
       <c r="K182" s="33"/>
       <c r="L182" s="33" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M182" s="33" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="N182" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="183" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D183" s="28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E183" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I183" s="5" t="b">
         <v>0</v>
@@ -10072,33 +10093,33 @@
         <v>1</v>
       </c>
       <c r="L183" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M183" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N183" s="43" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="184" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D184" s="28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E184" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I184" s="5" t="b">
         <v>0</v>
@@ -10110,34 +10131,34 @@
         <v>1</v>
       </c>
       <c r="L184" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="M184" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="N184" s="14" t="s">
         <v>433</v>
-      </c>
-      <c r="M184" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="N184" s="14" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="185" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="D185" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="E185" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H185" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="B185" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="D185" s="28" t="s">
-        <v>416</v>
-      </c>
-      <c r="E185" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H185" s="5" t="s">
-        <v>556</v>
-      </c>
       <c r="I185" s="5" t="b">
         <v>0</v>
       </c>
@@ -10148,69 +10169,69 @@
         <v>1</v>
       </c>
       <c r="L185" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M185" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N185" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="186" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C186" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="B186" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C186" s="5" t="s">
+      <c r="D186" s="27" t="s">
         <v>437</v>
       </c>
-      <c r="D186" s="27" t="s">
+      <c r="E186" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="I186" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="M186" s="23" t="s">
+        <v>699</v>
+      </c>
+      <c r="N186" s="5" t="s">
         <v>438</v>
-      </c>
-      <c r="E186" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H186" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="I186" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M186" s="23" t="s">
-        <v>700</v>
-      </c>
-      <c r="N186" s="5" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="187" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D187" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="E187" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H187" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="B187" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="D187" s="27" t="s">
-        <v>438</v>
-      </c>
-      <c r="E187" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H187" s="5" t="s">
-        <v>469</v>
-      </c>
       <c r="I187" s="5" t="b">
         <v>0</v>
       </c>
@@ -10221,7 +10242,7 @@
         <v>111</v>
       </c>
       <c r="M187" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N187" s="5" t="s">
         <v>123</v>
@@ -10229,28 +10250,28 @@
     </row>
     <row r="188" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="44" t="s">
+        <v>470</v>
+      </c>
+      <c r="B188" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C188" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="B188" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C188" s="15" t="s">
-        <v>472</v>
-      </c>
       <c r="D188" s="29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E188" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F188" s="21" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G188" s="18">
         <v>45565</v>
       </c>
       <c r="H188" s="15" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I188" s="15" t="b">
         <v>0</v>
@@ -10266,7 +10287,7 @@
         <v>111</v>
       </c>
       <c r="M188" s="24" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N188" s="19" t="s">
         <v>123</v>
@@ -10274,22 +10295,22 @@
     </row>
     <row r="189" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C189" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="D189" s="27" t="s">
+        <v>477</v>
+      </c>
+      <c r="E189" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H189" s="5" t="s">
         <v>473</v>
-      </c>
-      <c r="D189" s="27" t="s">
-        <v>478</v>
-      </c>
-      <c r="E189" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H189" s="5" t="s">
-        <v>474</v>
       </c>
       <c r="I189" s="5" t="b">
         <v>0</v>
@@ -10304,30 +10325,30 @@
         <v>111</v>
       </c>
       <c r="M189" s="23" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="N189" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="190" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D190" s="27" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E190" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I190" s="5" t="b">
         <v>0</v>
@@ -10342,30 +10363,30 @@
         <v>111</v>
       </c>
       <c r="M190" s="23" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="N190" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="191" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C191" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="D191" s="27" t="s">
         <v>477</v>
       </c>
-      <c r="D191" s="27" t="s">
-        <v>478</v>
-      </c>
       <c r="E191" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I191" s="5" t="b">
         <v>0</v>
@@ -10380,31 +10401,31 @@
         <v>111</v>
       </c>
       <c r="M191" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N191" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="192" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D192" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="E192" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H192" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="E192" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H192" s="5" t="s">
-        <v>494</v>
-      </c>
       <c r="I192" s="5" t="b">
         <v>0</v>
       </c>
@@ -10415,7 +10436,7 @@
         <v>111</v>
       </c>
       <c r="M192" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N192" s="7" t="s">
         <v>123</v>
@@ -10423,23 +10444,23 @@
     </row>
     <row r="193" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D193" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="E193" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H193" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="E193" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H193" s="5" t="s">
-        <v>494</v>
-      </c>
       <c r="I193" s="5" t="b">
         <v>0</v>
       </c>
@@ -10450,7 +10471,7 @@
         <v>111</v>
       </c>
       <c r="M193" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N193" s="7" t="s">
         <v>123</v>
@@ -10458,23 +10479,23 @@
     </row>
     <row r="194" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C194" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="D194" s="28" t="s">
         <v>492</v>
       </c>
-      <c r="D194" s="28" t="s">
+      <c r="E194" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H194" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="E194" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H194" s="5" t="s">
-        <v>494</v>
-      </c>
       <c r="I194" s="5" t="b">
         <v>0</v>
       </c>
@@ -10485,7 +10506,7 @@
         <v>111</v>
       </c>
       <c r="M194" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N194" s="7" t="s">
         <v>123</v>
@@ -10493,23 +10514,23 @@
     </row>
     <row r="195" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C195" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="D195" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="E195" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H195" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="D195" s="28" t="s">
-        <v>493</v>
-      </c>
-      <c r="E195" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H195" s="5" t="s">
-        <v>502</v>
-      </c>
       <c r="I195" s="5" t="b">
         <v>0</v>
       </c>
@@ -10520,7 +10541,7 @@
         <v>111</v>
       </c>
       <c r="M195" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N195" s="7" t="s">
         <v>123</v>
@@ -10528,22 +10549,22 @@
     </row>
     <row r="196" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D196" s="28" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E196" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I196" s="5" t="b">
         <v>0</v>
@@ -10555,7 +10576,7 @@
         <v>111</v>
       </c>
       <c r="M196" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N196" s="7" t="s">
         <v>123</v>
@@ -10563,22 +10584,22 @@
     </row>
     <row r="197" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D197" s="28" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E197" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I197" s="5" t="b">
         <v>0</v>
@@ -10590,7 +10611,7 @@
         <v>111</v>
       </c>
       <c r="M197" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N197" s="7" t="s">
         <v>123</v>
@@ -10598,28 +10619,28 @@
     </row>
     <row r="198" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="44" t="s">
+        <v>504</v>
+      </c>
+      <c r="B198" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C198" s="15" t="s">
         <v>505</v>
       </c>
-      <c r="B198" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C198" s="15" t="s">
+      <c r="D198" s="29" t="s">
         <v>506</v>
       </c>
-      <c r="D198" s="29" t="s">
-        <v>507</v>
-      </c>
       <c r="E198" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F198" s="21" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G198" s="18">
         <v>45565</v>
       </c>
       <c r="H198" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I198" s="15" t="b">
         <v>0</v>
@@ -10635,30 +10656,30 @@
         <v>111</v>
       </c>
       <c r="M198" s="24" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N198" s="19" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="199" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D199" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E199" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I199" s="5" t="b">
         <v>0</v>
@@ -10674,30 +10695,30 @@
         <v>110</v>
       </c>
       <c r="M199" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N199" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="200" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C200" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="D200" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="E200" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H200" s="5" t="s">
         <v>512</v>
-      </c>
-      <c r="D200" s="27" t="s">
-        <v>507</v>
-      </c>
-      <c r="E200" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H200" s="5" t="s">
-        <v>513</v>
       </c>
       <c r="I200" s="5" t="b">
         <v>0</v>
@@ -10713,30 +10734,30 @@
         <v>110</v>
       </c>
       <c r="M200" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N200" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="201" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D201" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E201" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I201" s="5" t="b">
         <v>0</v>
@@ -10752,30 +10773,30 @@
         <v>110</v>
       </c>
       <c r="M201" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N201" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="202" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D202" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E202" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I202" s="5" t="b">
         <v>0</v>
@@ -10791,30 +10812,30 @@
         <v>110</v>
       </c>
       <c r="M202" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N202" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="203" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D203" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E203" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I203" s="5" t="b">
         <v>0</v>
@@ -10829,30 +10850,30 @@
         <v>110</v>
       </c>
       <c r="M203" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N203" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="204" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D204" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E204" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I204" s="5" t="b">
         <v>0</v>
@@ -10867,30 +10888,30 @@
         <v>110</v>
       </c>
       <c r="M204" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N204" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D205" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E205" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I205" s="5" t="b">
         <v>0</v>
@@ -10905,30 +10926,30 @@
         <v>110</v>
       </c>
       <c r="M205" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N205" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="206" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D206" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E206" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I206" s="5" t="b">
         <v>0</v>
@@ -10943,30 +10964,30 @@
         <v>110</v>
       </c>
       <c r="M206" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N206" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C207" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="B207" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C207" s="5" t="s">
-        <v>531</v>
-      </c>
       <c r="D207" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E207" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I207" s="5" t="b">
         <v>0</v>
@@ -10981,30 +11002,30 @@
         <v>110</v>
       </c>
       <c r="M207" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N207" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="208" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D208" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E208" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I208" s="5" t="b">
         <v>0</v>
@@ -11019,30 +11040,30 @@
         <v>110</v>
       </c>
       <c r="M208" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N208" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="209" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D209" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E209" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I209" s="5" t="b">
         <v>0</v>
@@ -11057,30 +11078,30 @@
         <v>110</v>
       </c>
       <c r="M209" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N209" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="210" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D210" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E210" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I210" s="5" t="b">
         <v>0</v>
@@ -11095,30 +11116,30 @@
         <v>110</v>
       </c>
       <c r="M210" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N210" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="211" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D211" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E211" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I211" s="5" t="b">
         <v>0</v>
@@ -11133,30 +11154,30 @@
         <v>110</v>
       </c>
       <c r="M211" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N211" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="212" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D212" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E212" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H212" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I212" s="5" t="b">
         <v>0</v>
@@ -11171,30 +11192,30 @@
         <v>110</v>
       </c>
       <c r="M212" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N212" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="213" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D213" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E213" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H213" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I213" s="5" t="b">
         <v>0</v>
@@ -11209,30 +11230,30 @@
         <v>110</v>
       </c>
       <c r="M213" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N213" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="214" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D214" s="27" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E214" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H214" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I214" s="5" t="b">
         <v>0</v>
@@ -11244,33 +11265,33 @@
         <v>1</v>
       </c>
       <c r="L214" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M214" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N214" s="42" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="215" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D215" s="27" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E215" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I215" s="5" t="b">
         <v>0</v>
@@ -11282,33 +11303,33 @@
         <v>1</v>
       </c>
       <c r="L215" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M215" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N215" s="42" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="216" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D216" s="27" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E216" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I216" s="5" t="b">
         <v>0</v>
@@ -11320,33 +11341,33 @@
         <v>1</v>
       </c>
       <c r="L216" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M216" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N216" s="42" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="217" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D217" s="27" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E217" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I217" s="5" t="b">
         <v>0</v>
@@ -11358,33 +11379,33 @@
         <v>1</v>
       </c>
       <c r="L217" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M217" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N217" s="42" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="218" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D218" s="27" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E218" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I218" s="5" t="b">
         <v>0</v>
@@ -11396,33 +11417,33 @@
         <v>1</v>
       </c>
       <c r="L218" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M218" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N218" s="42" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="219" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D219" s="27" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E219" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I219" s="5" t="b">
         <v>0</v>
@@ -11434,68 +11455,68 @@
         <v>1</v>
       </c>
       <c r="L219" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M219" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N219" s="42" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="B220" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C220" s="1" t="s">
+      <c r="D220" s="27" t="s">
+        <v>569</v>
+      </c>
+      <c r="E220" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H220" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="D220" s="27" t="s">
-        <v>570</v>
-      </c>
-      <c r="E220" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H220" s="5" t="s">
+      <c r="I220" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J220" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="M220" s="23" t="s">
+        <v>708</v>
+      </c>
+      <c r="N220" s="5" t="s">
         <v>579</v>
-      </c>
-      <c r="I220" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J220" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="M220" s="23" t="s">
-        <v>709</v>
-      </c>
-      <c r="N220" s="5" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="221" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D221" s="27" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E221" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H221" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I221" s="5" t="b">
         <v>0</v>
@@ -11504,68 +11525,68 @@
         <v>1</v>
       </c>
       <c r="L221" s="23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M221" s="23" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="N221" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="222" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="D222" s="27" t="s">
+        <v>569</v>
+      </c>
+      <c r="E222" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H222" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="B222" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C222" s="5" t="s">
+      <c r="I222" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J222" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="M222" s="23" t="s">
+        <v>707</v>
+      </c>
+      <c r="N222" s="5" t="s">
         <v>586</v>
-      </c>
-      <c r="D222" s="27" t="s">
-        <v>570</v>
-      </c>
-      <c r="E222" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H222" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="I222" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J222" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L222" s="23" t="s">
-        <v>427</v>
-      </c>
-      <c r="M222" s="23" t="s">
-        <v>708</v>
-      </c>
-      <c r="N222" s="5" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B223" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C223" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="C223" s="5" t="s">
+      <c r="D223" s="27" t="s">
+        <v>569</v>
+      </c>
+      <c r="E223" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H223" s="5" t="s">
         <v>590</v>
-      </c>
-      <c r="D223" s="27" t="s">
-        <v>570</v>
-      </c>
-      <c r="E223" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H223" s="5" t="s">
-        <v>591</v>
       </c>
       <c r="I223" s="5" t="b">
         <v>1</v>
@@ -11580,30 +11601,30 @@
         <v>111</v>
       </c>
       <c r="M223" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N223" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D224" s="27" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E224" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H224" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I224" s="5" t="b">
         <v>1</v>
@@ -11618,36 +11639,36 @@
         <v>111</v>
       </c>
       <c r="M224" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N224" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="225" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="44" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B225" s="16" t="s">
         <v>56</v>
       </c>
       <c r="C225" s="15" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D225" s="29" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E225" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F225" s="21" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G225" s="18">
         <v>45565</v>
       </c>
       <c r="H225" s="15" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I225" s="15" t="b">
         <v>0</v>
@@ -11662,30 +11683,30 @@
         <v>111</v>
       </c>
       <c r="M225" s="24" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N225" s="15" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D226" s="27" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E226" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I226" s="5" t="b">
         <v>0</v>
@@ -11700,30 +11721,30 @@
         <v>111</v>
       </c>
       <c r="M226" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N226" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>504</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C227" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="B227" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>506</v>
-      </c>
       <c r="D227" s="27" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E227" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H227" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I227" s="5" t="b">
         <v>0</v>
@@ -11738,36 +11759,36 @@
         <v>111</v>
       </c>
       <c r="M227" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N227" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="228" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="44" t="s">
+        <v>596</v>
+      </c>
+      <c r="B228" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C228" s="15" t="s">
         <v>597</v>
       </c>
-      <c r="B228" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C228" s="15" t="s">
-        <v>598</v>
-      </c>
       <c r="D228" s="29" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E228" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F228" s="21" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G228" s="18">
         <v>45565</v>
       </c>
       <c r="H228" s="15" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I228" s="15" t="b">
         <v>0</v>
@@ -11782,30 +11803,30 @@
         <v>111</v>
       </c>
       <c r="M228" s="24" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N228" s="15" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="229" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>596</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C229" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="B229" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>598</v>
-      </c>
       <c r="D229" s="27" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E229" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H229" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I229" s="5" t="b">
         <v>0</v>
@@ -11820,206 +11841,206 @@
         <v>111</v>
       </c>
       <c r="M229" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="N229" s="5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" s="45" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A230" s="45" t="s">
+        <v>598</v>
+      </c>
+      <c r="B230" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C230" s="45" t="s">
+        <v>599</v>
+      </c>
+      <c r="D230" s="46" t="s">
+        <v>569</v>
+      </c>
+      <c r="E230" s="47" t="s">
+        <v>780</v>
+      </c>
+      <c r="F230" s="48">
+        <v>45792</v>
+      </c>
+      <c r="G230" s="48">
+        <v>45870</v>
+      </c>
+      <c r="H230" s="45" t="s">
+        <v>752</v>
+      </c>
+      <c r="I230" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J230" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K230" s="47">
+        <v>3</v>
+      </c>
+      <c r="L230" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="M230" s="47" t="s">
+        <v>694</v>
+      </c>
+      <c r="N230" s="45" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" s="45" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A231" s="45" t="s">
+        <v>600</v>
+      </c>
+      <c r="B231" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C231" s="45" t="s">
+        <v>601</v>
+      </c>
+      <c r="D231" s="46" t="s">
+        <v>569</v>
+      </c>
+      <c r="E231" s="47" t="s">
+        <v>780</v>
+      </c>
+      <c r="F231" s="48">
+        <v>45792</v>
+      </c>
+      <c r="G231" s="48">
+        <v>45870</v>
+      </c>
+      <c r="H231" s="45" t="s">
+        <v>752</v>
+      </c>
+      <c r="I231" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J231" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K231" s="47">
+        <v>3</v>
+      </c>
+      <c r="L231" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="M231" s="47" t="s">
         <v>695</v>
       </c>
-      <c r="N229" s="5" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="230" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A230" s="36" t="s">
-        <v>599</v>
-      </c>
-      <c r="B230" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C230" s="36" t="s">
-        <v>600</v>
-      </c>
-      <c r="D230" s="32" t="s">
-        <v>570</v>
-      </c>
-      <c r="E230" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="F230" s="38" t="s">
-        <v>742</v>
-      </c>
-      <c r="G230" s="35">
+      <c r="N231" s="45" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" s="45" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A232" s="45" t="s">
+        <v>602</v>
+      </c>
+      <c r="B232" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C232" s="45" t="s">
+        <v>603</v>
+      </c>
+      <c r="D232" s="46" t="s">
+        <v>569</v>
+      </c>
+      <c r="E232" s="47" t="s">
+        <v>780</v>
+      </c>
+      <c r="F232" s="48">
+        <v>45792</v>
+      </c>
+      <c r="G232" s="48">
         <v>45870</v>
       </c>
-      <c r="H230" s="36" t="s">
-        <v>753</v>
-      </c>
-      <c r="I230" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J230" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="K230" s="33">
+      <c r="H232" s="45" t="s">
+        <v>752</v>
+      </c>
+      <c r="I232" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J232" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K232" s="47">
         <v>3</v>
       </c>
-      <c r="L230" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M230" s="33" t="s">
+      <c r="L232" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="M232" s="47" t="s">
+        <v>694</v>
+      </c>
+      <c r="N232" s="45" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" s="45" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A233" s="45" t="s">
+        <v>604</v>
+      </c>
+      <c r="B233" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C233" s="45" t="s">
+        <v>605</v>
+      </c>
+      <c r="D233" s="46" t="s">
+        <v>569</v>
+      </c>
+      <c r="E233" s="47" t="s">
+        <v>780</v>
+      </c>
+      <c r="F233" s="48">
+        <v>45792</v>
+      </c>
+      <c r="G233" s="48">
+        <v>45870</v>
+      </c>
+      <c r="H233" s="45" t="s">
+        <v>752</v>
+      </c>
+      <c r="I233" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J233" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K233" s="47">
+        <v>3</v>
+      </c>
+      <c r="L233" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="M233" s="47" t="s">
         <v>695</v>
       </c>
-      <c r="N230" s="36" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="231" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A231" s="36" t="s">
-        <v>601</v>
-      </c>
-      <c r="B231" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C231" s="36" t="s">
-        <v>602</v>
-      </c>
-      <c r="D231" s="32" t="s">
-        <v>570</v>
-      </c>
-      <c r="E231" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="F231" s="38" t="s">
-        <v>742</v>
-      </c>
-      <c r="G231" s="35">
-        <v>45870</v>
-      </c>
-      <c r="H231" s="36" t="s">
-        <v>753</v>
-      </c>
-      <c r="I231" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J231" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="K231" s="33">
-        <v>3</v>
-      </c>
-      <c r="L231" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M231" s="33" t="s">
-        <v>696</v>
-      </c>
-      <c r="N231" s="36" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="232" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A232" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="B232" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C232" s="36" t="s">
-        <v>604</v>
-      </c>
-      <c r="D232" s="32" t="s">
-        <v>570</v>
-      </c>
-      <c r="E232" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="F232" s="38" t="s">
-        <v>742</v>
-      </c>
-      <c r="G232" s="35">
-        <v>45870</v>
-      </c>
-      <c r="H232" s="36" t="s">
-        <v>753</v>
-      </c>
-      <c r="I232" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J232" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="K232" s="33">
-        <v>3</v>
-      </c>
-      <c r="L232" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M232" s="33" t="s">
-        <v>695</v>
-      </c>
-      <c r="N232" s="36" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="233" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A233" s="36" t="s">
-        <v>605</v>
-      </c>
-      <c r="B233" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C233" s="36" t="s">
-        <v>606</v>
-      </c>
-      <c r="D233" s="32" t="s">
-        <v>570</v>
-      </c>
-      <c r="E233" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="F233" s="38" t="s">
-        <v>742</v>
-      </c>
-      <c r="G233" s="35">
-        <v>45870</v>
-      </c>
-      <c r="H233" s="36" t="s">
-        <v>753</v>
-      </c>
-      <c r="I233" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J233" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="K233" s="33">
-        <v>3</v>
-      </c>
-      <c r="L233" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M233" s="33" t="s">
-        <v>696</v>
-      </c>
-      <c r="N233" s="36" t="s">
-        <v>508</v>
+      <c r="N233" s="45" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C234" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="B234" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="C234" s="5" t="s">
-        <v>600</v>
-      </c>
       <c r="D234" s="27" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E234" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H234" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I234" s="5" t="b">
         <v>0</v>
@@ -12034,30 +12055,30 @@
         <v>111</v>
       </c>
       <c r="M234" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N234" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="235" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C235" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="B235" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="C235" s="5" t="s">
-        <v>602</v>
-      </c>
       <c r="D235" s="27" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E235" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I235" s="5" t="b">
         <v>0</v>
@@ -12072,30 +12093,30 @@
         <v>111</v>
       </c>
       <c r="M235" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N235" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="236" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C236" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="B236" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="C236" s="5" t="s">
-        <v>604</v>
-      </c>
       <c r="D236" s="27" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E236" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I236" s="5" t="b">
         <v>0</v>
@@ -12110,30 +12131,30 @@
         <v>111</v>
       </c>
       <c r="M236" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N236" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="237" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C237" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="B237" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="C237" s="5" t="s">
+      <c r="D237" s="27" t="s">
+        <v>569</v>
+      </c>
+      <c r="E237" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H237" s="5" t="s">
         <v>606</v>
-      </c>
-      <c r="D237" s="27" t="s">
-        <v>570</v>
-      </c>
-      <c r="E237" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H237" s="5" t="s">
-        <v>607</v>
       </c>
       <c r="I237" s="5" t="b">
         <v>0</v>
@@ -12148,30 +12169,30 @@
         <v>111</v>
       </c>
       <c r="M237" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N237" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="238" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B238" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D238" s="28" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E238" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H238" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I238" s="5" t="b">
         <v>0</v>
@@ -12183,7 +12204,7 @@
         <v>111</v>
       </c>
       <c r="M238" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N238" s="7" t="s">
         <v>123</v>
@@ -12191,22 +12212,22 @@
     </row>
     <row r="239" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B239" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D239" s="28" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E239" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H239" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I239" s="5" t="b">
         <v>0</v>
@@ -12218,7 +12239,7 @@
         <v>111</v>
       </c>
       <c r="M239" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N239" s="7" t="s">
         <v>123</v>
@@ -12226,22 +12247,22 @@
     </row>
     <row r="240" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D240" s="28" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E240" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H240" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I240" s="5" t="b">
         <v>0</v>
@@ -12253,7 +12274,7 @@
         <v>111</v>
       </c>
       <c r="M240" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N240" s="7" t="s">
         <v>123</v>
@@ -12261,22 +12282,22 @@
     </row>
     <row r="241" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D241" s="28" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E241" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H241" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I241" s="5" t="b">
         <v>0</v>
@@ -12288,7 +12309,7 @@
         <v>111</v>
       </c>
       <c r="M241" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N241" s="7" t="s">
         <v>123</v>
@@ -12296,22 +12317,22 @@
     </row>
     <row r="242" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B242" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D242" s="28" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E242" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H242" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I242" s="5" t="b">
         <v>0</v>
@@ -12323,7 +12344,7 @@
         <v>111</v>
       </c>
       <c r="M242" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N242" s="7" t="s">
         <v>123</v>
@@ -12331,22 +12352,22 @@
     </row>
     <row r="243" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B243" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D243" s="28" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E243" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H243" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I243" s="5" t="b">
         <v>0</v>
@@ -12358,7 +12379,7 @@
         <v>111</v>
       </c>
       <c r="M243" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N243" s="7" t="s">
         <v>123</v>
@@ -12366,22 +12387,22 @@
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="D244" s="28" t="s">
+        <v>607</v>
+      </c>
+      <c r="E244" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H244" s="5" t="s">
         <v>623</v>
-      </c>
-      <c r="B244" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="C244" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="D244" s="28" t="s">
-        <v>608</v>
-      </c>
-      <c r="E244" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H244" s="5" t="s">
-        <v>624</v>
       </c>
       <c r="I244" s="5" t="b">
         <v>0</v>
@@ -12396,30 +12417,30 @@
         <v>111</v>
       </c>
       <c r="M244" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N244" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="245" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D245" s="28" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E245" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H245" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I245" s="5" t="b">
         <v>0</v>
@@ -12434,30 +12455,30 @@
         <v>111</v>
       </c>
       <c r="M245" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N245" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D246" s="28" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E246" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H246" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I246" s="5" t="b">
         <v>0</v>
@@ -12472,30 +12493,30 @@
         <v>111</v>
       </c>
       <c r="M246" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N246" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="247" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D247" s="28" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E247" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I247" s="5" t="b">
         <v>0</v>
@@ -12510,30 +12531,30 @@
         <v>111</v>
       </c>
       <c r="M247" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N247" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D248" s="28" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E248" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H248" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I248" s="5" t="b">
         <v>0</v>
@@ -12548,30 +12569,30 @@
         <v>111</v>
       </c>
       <c r="M248" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N248" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="249" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C249" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D249" s="28" t="s">
+        <v>631</v>
+      </c>
+      <c r="E249" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H249" s="5" t="s">
         <v>641</v>
-      </c>
-      <c r="D249" s="28" t="s">
-        <v>632</v>
-      </c>
-      <c r="E249" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H249" s="5" t="s">
-        <v>642</v>
       </c>
       <c r="I249" s="5" t="b">
         <v>0</v>
@@ -12586,30 +12607,30 @@
         <v>111</v>
       </c>
       <c r="M249" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N249" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D250" s="28" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E250" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H250" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I250" s="5" t="b">
         <v>0</v>
@@ -12624,30 +12645,30 @@
         <v>111</v>
       </c>
       <c r="M250" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N250" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="251" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B251" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D251" s="28" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E251" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H251" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I251" s="5" t="b">
         <v>0</v>
@@ -12662,30 +12683,30 @@
         <v>111</v>
       </c>
       <c r="M251" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N251" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D252" s="28" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E252" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H252" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I252" s="5" t="b">
         <v>0</v>
@@ -12700,30 +12721,30 @@
         <v>111</v>
       </c>
       <c r="M252" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N252" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="253" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D253" s="28" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E253" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H253" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I253" s="5" t="b">
         <v>0</v>
@@ -12738,100 +12759,100 @@
         <v>111</v>
       </c>
       <c r="M253" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N253" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C254" t="s">
+        <v>648</v>
+      </c>
+      <c r="D254" s="27" t="s">
         <v>645</v>
       </c>
-      <c r="B254" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C254" t="s">
-        <v>649</v>
-      </c>
-      <c r="D254" s="27" t="s">
+      <c r="E254" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H254" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="I254" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J254" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L254" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="M254" s="23" t="s">
+        <v>708</v>
+      </c>
+      <c r="N254" s="5" t="s">
         <v>646</v>
-      </c>
-      <c r="E254" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H254" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="I254" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J254" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L254" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="M254" s="23" t="s">
-        <v>709</v>
-      </c>
-      <c r="N254" s="5" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D255" s="27" t="s">
+        <v>645</v>
+      </c>
+      <c r="E255" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H255" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="I255" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J255" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L255" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="M255" s="23" t="s">
+        <v>708</v>
+      </c>
+      <c r="N255" s="5" t="s">
         <v>646</v>
-      </c>
-      <c r="E255" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H255" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="I255" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J255" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L255" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="M255" s="23" t="s">
-        <v>709</v>
-      </c>
-      <c r="N255" s="5" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C256" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="B256" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C256" s="5" t="s">
-        <v>652</v>
-      </c>
       <c r="D256" s="27" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E256" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H256" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I256" s="5" t="b">
         <v>0</v>
@@ -12840,33 +12861,33 @@
         <v>0</v>
       </c>
       <c r="L256" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M256" s="23" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="N256" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D257" s="27" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E257" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I257" s="5" t="b">
         <v>0</v>
@@ -12875,33 +12896,33 @@
         <v>0</v>
       </c>
       <c r="L257" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M257" s="23" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="N257" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C258" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="B258" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C258" s="5" t="s">
-        <v>655</v>
-      </c>
       <c r="D258" s="27" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E258" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H258" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I258" s="5" t="b">
         <v>0</v>
@@ -12910,33 +12931,33 @@
         <v>0</v>
       </c>
       <c r="L258" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M258" s="23" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="N258" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B259" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D259" s="27" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E259" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H259" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I259" s="5" t="b">
         <v>0</v>
@@ -12945,33 +12966,33 @@
         <v>0</v>
       </c>
       <c r="L259" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M259" s="23" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="N259" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="260" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B260" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D260" s="27" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E260" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H260" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I260" s="5" t="b">
         <v>0</v>
@@ -12980,33 +13001,33 @@
         <v>0</v>
       </c>
       <c r="L260" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M260" s="23" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N260" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="261" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B261" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D261" s="27" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E261" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H261" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I261" s="5" t="b">
         <v>0</v>
@@ -13015,33 +13036,33 @@
         <v>0</v>
       </c>
       <c r="L261" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M261" s="23" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N261" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="262" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B262" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D262" s="27" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E262" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H262" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I262" s="5" t="b">
         <v>0</v>
@@ -13050,33 +13071,33 @@
         <v>0</v>
       </c>
       <c r="L262" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M262" s="23" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N262" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="263" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B263" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D263" s="27" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E263" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I263" s="5" t="b">
         <v>0</v>
@@ -13085,33 +13106,33 @@
         <v>0</v>
       </c>
       <c r="L263" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M263" s="23" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N263" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="264" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B264" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D264" s="27" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E264" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H264" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I264" s="5" t="b">
         <v>0</v>
@@ -13120,33 +13141,33 @@
         <v>0</v>
       </c>
       <c r="L264" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M264" s="23" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N264" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="265" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B265" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D265" s="27" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E265" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I265" s="5" t="b">
         <v>0</v>
@@ -13155,33 +13176,33 @@
         <v>0</v>
       </c>
       <c r="L265" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M265" s="23" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N265" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="266" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B266" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D266" s="27" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E266" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H266" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I266" s="5" t="b">
         <v>0</v>
@@ -13190,33 +13211,33 @@
         <v>0</v>
       </c>
       <c r="L266" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M266" s="23" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N266" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="267" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B267" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D267" s="27" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E267" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H267" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I267" s="5" t="b">
         <v>0</v>
@@ -13225,34 +13246,34 @@
         <v>0</v>
       </c>
       <c r="L267" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M267" s="23" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N267" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="268" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="D268" s="27" t="s">
+        <v>645</v>
+      </c>
+      <c r="E268" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H268" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="B268" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C268" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="D268" s="27" t="s">
-        <v>646</v>
-      </c>
-      <c r="E268" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H268" s="5" t="s">
-        <v>682</v>
-      </c>
       <c r="I268" s="5" t="b">
         <v>0</v>
       </c>
@@ -13260,33 +13281,33 @@
         <v>0</v>
       </c>
       <c r="L268" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M268" s="23" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N268" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="269" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B269" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D269" s="27" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E269" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H269" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I269" s="5" t="b">
         <v>0</v>
@@ -13302,30 +13323,30 @@
         <v>111</v>
       </c>
       <c r="M269" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N269" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="270" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B270" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C270" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="D270" s="27" t="s">
         <v>712</v>
       </c>
-      <c r="D270" s="27" t="s">
-        <v>713</v>
-      </c>
       <c r="E270" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H270" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I270" s="5" t="b">
         <v>0</v>
@@ -13341,65 +13362,65 @@
         <v>111</v>
       </c>
       <c r="M270" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N270" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="271" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="D271" s="27" t="s">
+        <v>712</v>
+      </c>
+      <c r="E271" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H271" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="B271" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C271" s="5" t="s">
+      <c r="I271" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J271" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L271" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="M271" s="23" t="s">
+        <v>717</v>
+      </c>
+      <c r="N271" s="5" t="s">
         <v>714</v>
-      </c>
-      <c r="D271" s="27" t="s">
-        <v>713</v>
-      </c>
-      <c r="E271" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H271" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="I271" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J271" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L271" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="M271" s="23" t="s">
-        <v>718</v>
-      </c>
-      <c r="N271" s="5" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="272" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B272" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D272" s="27" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E272" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H272" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I272" s="5" t="b">
         <v>0</v>
@@ -13412,33 +13433,33 @@
         <v>1</v>
       </c>
       <c r="L272" s="23" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M272" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N272" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="273" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B273" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D273" s="27" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E273" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H273" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I273" s="5" t="b">
         <v>0</v>
@@ -13451,33 +13472,33 @@
         <v>1</v>
       </c>
       <c r="L273" s="23" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M273" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N273" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="274" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B274" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D274" s="27" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E274" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H274" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I274" s="5" t="b">
         <v>0</v>
@@ -13490,33 +13511,33 @@
         <v>1</v>
       </c>
       <c r="L274" s="23" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M274" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N274" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="275" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B275" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D275" s="27" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E275" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H275" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I275" s="5" t="b">
         <v>0</v>
@@ -13529,33 +13550,33 @@
         <v>1</v>
       </c>
       <c r="L275" s="23" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M275" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N275" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="276" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C276" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="B276" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C276" s="5" t="s">
-        <v>729</v>
-      </c>
       <c r="D276" s="27" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E276" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H276" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I276" s="5" t="b">
         <v>0</v>
@@ -13568,33 +13589,33 @@
         <v>1</v>
       </c>
       <c r="L276" s="23" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M276" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N276" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="277" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B277" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D277" s="27" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E277" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H277" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I277" s="5" t="b">
         <v>0</v>
@@ -13607,33 +13628,33 @@
         <v>1</v>
       </c>
       <c r="L277" s="23" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M277" s="23" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N277" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="278" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D278" s="28" t="s">
+        <v>741</v>
+      </c>
+      <c r="E278" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H278" s="5" t="s">
         <v>742</v>
-      </c>
-      <c r="E278" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H278" s="5" t="s">
-        <v>743</v>
       </c>
       <c r="I278" s="5" t="b">
         <v>0</v>
@@ -13646,33 +13667,33 @@
         <v>1</v>
       </c>
       <c r="L278" s="23" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M278" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N278" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="279" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B279" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C279" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="D279" s="28" t="s">
         <v>741</v>
       </c>
-      <c r="D279" s="28" t="s">
+      <c r="E279" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H279" s="5" t="s">
         <v>742</v>
-      </c>
-      <c r="E279" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H279" s="5" t="s">
-        <v>743</v>
       </c>
       <c r="I279" s="5" t="b">
         <v>0</v>
@@ -13685,33 +13706,33 @@
         <v>1</v>
       </c>
       <c r="L279" s="23" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M279" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N279" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D280" s="28" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E280" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H280" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I280" s="5" t="b">
         <v>0</v>
@@ -13727,30 +13748,30 @@
         <v>111</v>
       </c>
       <c r="M280" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N280" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="281" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D281" s="28" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E281" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H281" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I281" s="5" t="b">
         <v>0</v>
@@ -13766,30 +13787,30 @@
         <v>111</v>
       </c>
       <c r="M281" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N281" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D282" s="28" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E282" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H282" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I282" s="5" t="b">
         <v>0</v>
@@ -13805,30 +13826,30 @@
         <v>111</v>
       </c>
       <c r="M282" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N282" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="283" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C283" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D283" s="28" t="s">
+        <v>741</v>
+      </c>
+      <c r="E283" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H283" s="5" t="s">
         <v>751</v>
-      </c>
-      <c r="D283" s="28" t="s">
-        <v>742</v>
-      </c>
-      <c r="E283" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H283" s="5" t="s">
-        <v>752</v>
       </c>
       <c r="I283" s="5" t="b">
         <v>0</v>
@@ -13844,10 +13865,10 @@
         <v>111</v>
       </c>
       <c r="M283" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N283" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>

--- a/work-in-progress/Peppol Code Lists - Document types v9.1.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v9.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DA6A8F-7EF7-46C0-A70C-367E5877E6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC42692-FB72-4D61-94CD-3C1D06F73239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2015,9 +2015,6 @@
     <t>TICC-312</t>
   </si>
   <si>
-    <t>TICC-328</t>
-  </si>
-  <si>
     <t>Abstract?</t>
   </si>
   <si>
@@ -2449,6 +2446,10 @@
   </si>
   <si>
     <t>deprecation-scheduled</t>
+  </si>
+  <si>
+    <t>TICC-328
+TICC-374</t>
   </si>
 </sst>
 </file>
@@ -2578,7 +2579,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2713,6 +2714,16 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3130,8 +3141,8 @@
   <dimension ref="A1:N283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E230" sqref="E230"/>
+      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A283" sqref="A283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3170,7 +3181,7 @@
         <v>350</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>400</v>
@@ -3179,7 +3190,7 @@
         <v>107</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>431</v>
@@ -3191,7 +3202,7 @@
         <v>109</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>152</v>
@@ -3231,7 +3242,7 @@
         <v>110</v>
       </c>
       <c r="M2" s="33" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N2" s="36" t="s">
         <v>138</v>
@@ -3271,7 +3282,7 @@
         <v>110</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N3" s="36" t="s">
         <v>138</v>
@@ -3311,7 +3322,7 @@
         <v>110</v>
       </c>
       <c r="M4" s="33" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N4" s="36" t="s">
         <v>138</v>
@@ -3351,7 +3362,7 @@
         <v>111</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N5" s="36" t="s">
         <v>139</v>
@@ -3391,7 +3402,7 @@
         <v>111</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N6" s="36" t="s">
         <v>140</v>
@@ -3431,7 +3442,7 @@
         <v>111</v>
       </c>
       <c r="M7" s="33" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N7" s="36" t="s">
         <v>139</v>
@@ -3471,7 +3482,7 @@
         <v>111</v>
       </c>
       <c r="M8" s="33" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N8" s="36" t="s">
         <v>141</v>
@@ -3511,7 +3522,7 @@
         <v>111</v>
       </c>
       <c r="M9" s="33" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N9" s="36" t="s">
         <v>142</v>
@@ -3554,7 +3565,7 @@
         <v>111</v>
       </c>
       <c r="M10" s="33" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N10" s="36" t="s">
         <v>143</v>
@@ -3594,7 +3605,7 @@
         <v>111</v>
       </c>
       <c r="M11" s="33" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N11" s="36" t="s">
         <v>143</v>
@@ -3634,7 +3645,7 @@
         <v>111</v>
       </c>
       <c r="M12" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N12" s="36" t="s">
         <v>144</v>
@@ -3674,7 +3685,7 @@
         <v>111</v>
       </c>
       <c r="M13" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N13" s="36" t="s">
         <v>145</v>
@@ -3714,7 +3725,7 @@
         <v>111</v>
       </c>
       <c r="M14" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N14" s="36" t="s">
         <v>146</v>
@@ -3722,7 +3733,7 @@
     </row>
     <row r="15" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B15" s="31" t="s">
         <v>56</v>
@@ -3754,7 +3765,7 @@
         <v>111</v>
       </c>
       <c r="M15" s="33" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N15" s="36" t="s">
         <v>146</v>
@@ -3794,7 +3805,7 @@
         <v>111</v>
       </c>
       <c r="M16" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N16" s="36" t="s">
         <v>146</v>
@@ -3834,7 +3845,7 @@
         <v>111</v>
       </c>
       <c r="M17" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N17" s="36" t="s">
         <v>147</v>
@@ -3842,7 +3853,7 @@
     </row>
     <row r="18" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B18" s="31" t="s">
         <v>56</v>
@@ -3874,7 +3885,7 @@
         <v>111</v>
       </c>
       <c r="M18" s="33" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N18" s="36" t="s">
         <v>147</v>
@@ -3914,7 +3925,7 @@
         <v>111</v>
       </c>
       <c r="M19" s="33" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N19" s="36" t="s">
         <v>148</v>
@@ -3954,7 +3965,7 @@
         <v>111</v>
       </c>
       <c r="M20" s="33" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N20" s="36" t="s">
         <v>148</v>
@@ -3994,7 +4005,7 @@
         <v>111</v>
       </c>
       <c r="M21" s="33" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N21" s="36" t="s">
         <v>148</v>
@@ -4034,7 +4045,7 @@
         <v>111</v>
       </c>
       <c r="M22" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N22" s="36" t="s">
         <v>148</v>
@@ -4042,7 +4053,7 @@
     </row>
     <row r="23" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B23" s="31" t="s">
         <v>56</v>
@@ -4074,7 +4085,7 @@
         <v>111</v>
       </c>
       <c r="M23" s="33" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N23" s="36" t="s">
         <v>148</v>
@@ -4114,7 +4125,7 @@
         <v>111</v>
       </c>
       <c r="M24" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N24" s="36" t="s">
         <v>148</v>
@@ -4152,7 +4163,7 @@
         <v>111</v>
       </c>
       <c r="M25" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N25" s="36" t="s">
         <v>144</v>
@@ -4185,7 +4196,7 @@
         <v>111</v>
       </c>
       <c r="M26" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>147</v>
@@ -4225,7 +4236,7 @@
         <v>111</v>
       </c>
       <c r="M27" s="33" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N27" s="36" t="s">
         <v>149</v>
@@ -4268,7 +4279,7 @@
         <v>111</v>
       </c>
       <c r="M28" s="33" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N28" s="36" t="s">
         <v>149</v>
@@ -4308,7 +4319,7 @@
         <v>111</v>
       </c>
       <c r="M29" s="33" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N29" s="36" t="s">
         <v>149</v>
@@ -4348,7 +4359,7 @@
         <v>111</v>
       </c>
       <c r="M30" s="33" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N30" s="36" t="s">
         <v>150</v>
@@ -4388,7 +4399,7 @@
         <v>111</v>
       </c>
       <c r="M31" s="33" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="N31" s="36" t="s">
         <v>151</v>
@@ -4411,7 +4422,7 @@
         <v>352</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I32" s="5" t="b">
         <v>0</v>
@@ -4427,15 +4438,15 @@
         <v>111</v>
       </c>
       <c r="M32" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>56</v>
@@ -4450,7 +4461,7 @@
         <v>352</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I33" s="5" t="b">
         <v>0</v>
@@ -4466,10 +4477,10 @@
         <v>111</v>
       </c>
       <c r="M33" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -4499,7 +4510,7 @@
         <v>111</v>
       </c>
       <c r="M34" s="23" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>149</v>
@@ -4540,7 +4551,7 @@
         <v>111</v>
       </c>
       <c r="M35" s="33" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N35" s="36" t="s">
         <v>149</v>
@@ -4576,7 +4587,7 @@
         <v>111</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N36" s="5" t="s">
         <v>149</v>
@@ -4612,7 +4623,7 @@
         <v>111</v>
       </c>
       <c r="M37" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N37" s="7" t="s">
         <v>123</v>
@@ -4655,7 +4666,7 @@
         <v>110</v>
       </c>
       <c r="M38" s="33" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N38" s="36" t="s">
         <v>137</v>
@@ -4698,7 +4709,7 @@
         <v>110</v>
       </c>
       <c r="M39" s="33" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N39" s="36" t="s">
         <v>137</v>
@@ -4741,7 +4752,7 @@
         <v>110</v>
       </c>
       <c r="M40" s="33" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N40" s="36" t="s">
         <v>136</v>
@@ -4784,7 +4795,7 @@
         <v>110</v>
       </c>
       <c r="M41" s="33" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N41" s="36" t="s">
         <v>136</v>
@@ -4827,7 +4838,7 @@
         <v>110</v>
       </c>
       <c r="M42" s="33" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N42" s="36" t="s">
         <v>135</v>
@@ -4870,7 +4881,7 @@
         <v>110</v>
       </c>
       <c r="M43" s="33" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N43" s="36" t="s">
         <v>135</v>
@@ -4913,7 +4924,7 @@
         <v>111</v>
       </c>
       <c r="M44" s="24" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N44" s="19" t="s">
         <v>123</v>
@@ -4921,7 +4932,7 @@
     </row>
     <row r="45" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>56</v>
@@ -4956,7 +4967,7 @@
         <v>111</v>
       </c>
       <c r="M45" s="24" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N45" s="19" t="s">
         <v>123</v>
@@ -4999,7 +5010,7 @@
         <v>111</v>
       </c>
       <c r="M46" s="24" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N46" s="19" t="s">
         <v>123</v>
@@ -5035,7 +5046,7 @@
         <v>111</v>
       </c>
       <c r="M47" s="23" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="N47" s="7" t="s">
         <v>121</v>
@@ -5071,7 +5082,7 @@
         <v>111</v>
       </c>
       <c r="M48" s="23" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N48" s="7" t="s">
         <v>122</v>
@@ -5107,7 +5118,7 @@
         <v>111</v>
       </c>
       <c r="M49" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N49" s="7" t="s">
         <v>123</v>
@@ -5143,7 +5154,7 @@
         <v>111</v>
       </c>
       <c r="M50" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N50" s="7" t="s">
         <v>123</v>
@@ -5183,7 +5194,7 @@
         <v>111</v>
       </c>
       <c r="M51" s="33" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="N51" s="36" t="s">
         <v>124</v>
@@ -5219,7 +5230,7 @@
         <v>111</v>
       </c>
       <c r="M52" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N52" s="5" t="s">
         <v>125</v>
@@ -5255,7 +5266,7 @@
         <v>111</v>
       </c>
       <c r="M53" s="23" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N53" s="7" t="s">
         <v>126</v>
@@ -5294,7 +5305,7 @@
         <v>111</v>
       </c>
       <c r="M54" s="23" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N54" s="5" t="s">
         <v>481</v>
@@ -5317,7 +5328,7 @@
         <v>352</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I55" s="5" t="b">
         <v>0</v>
@@ -5333,10 +5344,10 @@
         <v>111</v>
       </c>
       <c r="M55" s="23" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -5369,7 +5380,7 @@
         <v>111</v>
       </c>
       <c r="M56" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N56" s="7" t="s">
         <v>127</v>
@@ -5405,7 +5416,7 @@
         <v>111</v>
       </c>
       <c r="M57" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N57" s="7" t="s">
         <v>128</v>
@@ -5441,7 +5452,7 @@
         <v>111</v>
       </c>
       <c r="M58" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N58" s="7" t="s">
         <v>129</v>
@@ -5477,7 +5488,7 @@
         <v>111</v>
       </c>
       <c r="M59" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N59" s="7" t="s">
         <v>130</v>
@@ -5513,7 +5524,7 @@
         <v>111</v>
       </c>
       <c r="M60" s="23" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="N60" s="7" t="s">
         <v>131</v>
@@ -5546,7 +5557,7 @@
         <v>111</v>
       </c>
       <c r="M61" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N61" s="7" t="s">
         <v>123</v>
@@ -5554,7 +5565,7 @@
     </row>
     <row r="62" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>56</v>
@@ -5579,7 +5590,7 @@
         <v>111</v>
       </c>
       <c r="M62" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N62" s="7" t="s">
         <v>123</v>
@@ -5615,7 +5626,7 @@
         <v>111</v>
       </c>
       <c r="M63" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N63" s="7" t="s">
         <v>123</v>
@@ -5658,7 +5669,7 @@
         <v>111</v>
       </c>
       <c r="M64" s="33" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N64" s="39" t="s">
         <v>123</v>
@@ -5697,7 +5708,7 @@
         <v>111</v>
       </c>
       <c r="M65" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N65" s="7" t="s">
         <v>123</v>
@@ -5740,7 +5751,7 @@
         <v>111</v>
       </c>
       <c r="M66" s="24" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N66" s="19" t="s">
         <v>123</v>
@@ -5748,7 +5759,7 @@
     </row>
     <row r="67" spans="1:14" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B67" s="16" t="s">
         <v>56</v>
@@ -5783,7 +5794,7 @@
         <v>111</v>
       </c>
       <c r="M67" s="24" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N67" s="19" t="s">
         <v>123</v>
@@ -5826,7 +5837,7 @@
         <v>111</v>
       </c>
       <c r="M68" s="24" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N68" s="19" t="s">
         <v>123</v>
@@ -5862,7 +5873,7 @@
         <v>111</v>
       </c>
       <c r="M69" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N69" s="7" t="s">
         <v>132</v>
@@ -5898,7 +5909,7 @@
         <v>111</v>
       </c>
       <c r="M70" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N70" s="7" t="s">
         <v>133</v>
@@ -5934,7 +5945,7 @@
         <v>111</v>
       </c>
       <c r="M71" s="23" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="N71" s="7" t="s">
         <v>134</v>
@@ -5973,7 +5984,7 @@
         <v>111</v>
       </c>
       <c r="M72" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N72" s="7" t="s">
         <v>123</v>
@@ -5981,7 +5992,7 @@
     </row>
     <row r="73" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>56</v>
@@ -6012,7 +6023,7 @@
         <v>111</v>
       </c>
       <c r="M73" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N73" s="7" t="s">
         <v>123</v>
@@ -6048,7 +6059,7 @@
         <v>111</v>
       </c>
       <c r="M74" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N74" s="7" t="s">
         <v>234</v>
@@ -6056,7 +6067,7 @@
     </row>
     <row r="75" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>56</v>
@@ -6084,7 +6095,7 @@
         <v>111</v>
       </c>
       <c r="M75" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N75" s="7" t="s">
         <v>234</v>
@@ -6127,7 +6138,7 @@
         <v>111</v>
       </c>
       <c r="M76" s="24" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N76" s="19" t="s">
         <v>144</v>
@@ -6170,7 +6181,7 @@
         <v>111</v>
       </c>
       <c r="M77" s="24" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N77" s="19" t="s">
         <v>143</v>
@@ -6213,7 +6224,7 @@
         <v>111</v>
       </c>
       <c r="M78" s="24" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N78" s="19" t="s">
         <v>123</v>
@@ -6221,7 +6232,7 @@
     </row>
     <row r="79" spans="1:14" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B79" s="16" t="s">
         <v>56</v>
@@ -6256,7 +6267,7 @@
         <v>111</v>
       </c>
       <c r="M79" s="24" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N79" s="19" t="s">
         <v>123</v>
@@ -6299,7 +6310,7 @@
         <v>111</v>
       </c>
       <c r="M80" s="24" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N80" s="19" t="s">
         <v>123</v>
@@ -6335,7 +6346,7 @@
         <v>111</v>
       </c>
       <c r="M81" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N81" s="7" t="s">
         <v>123</v>
@@ -6343,7 +6354,7 @@
     </row>
     <row r="82" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>56</v>
@@ -6371,7 +6382,7 @@
         <v>111</v>
       </c>
       <c r="M82" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N82" s="7" t="s">
         <v>123</v>
@@ -6414,7 +6425,7 @@
         <v>111</v>
       </c>
       <c r="M83" s="24" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N83" s="19" t="s">
         <v>123</v>
@@ -6450,7 +6461,7 @@
         <v>111</v>
       </c>
       <c r="M84" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N84" s="7" t="s">
         <v>123</v>
@@ -6493,7 +6504,7 @@
         <v>111</v>
       </c>
       <c r="M85" s="24" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N85" s="19" t="s">
         <v>123</v>
@@ -6501,7 +6512,7 @@
     </row>
     <row r="86" spans="1:14" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B86" s="16" t="s">
         <v>56</v>
@@ -6536,7 +6547,7 @@
         <v>111</v>
       </c>
       <c r="M86" s="24" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N86" s="19" t="s">
         <v>123</v>
@@ -6579,7 +6590,7 @@
         <v>111</v>
       </c>
       <c r="M87" s="24" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N87" s="19" t="s">
         <v>123</v>
@@ -6615,7 +6626,7 @@
         <v>111</v>
       </c>
       <c r="M88" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N88" s="7" t="s">
         <v>123</v>
@@ -6656,7 +6667,7 @@
         <v>111</v>
       </c>
       <c r="M89" s="33" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N89" s="36" t="s">
         <v>177</v>
@@ -6697,7 +6708,7 @@
         <v>111</v>
       </c>
       <c r="M90" s="33" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="N90" s="36" t="s">
         <v>177</v>
@@ -6738,7 +6749,7 @@
         <v>111</v>
       </c>
       <c r="M91" s="33" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="N91" s="36" t="s">
         <v>177</v>
@@ -6779,7 +6790,7 @@
         <v>111</v>
       </c>
       <c r="M92" s="33" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N92" s="36" t="s">
         <v>177</v>
@@ -6815,7 +6826,7 @@
         <v>111</v>
       </c>
       <c r="M93" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N93" s="5" t="s">
         <v>189</v>
@@ -6823,7 +6834,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>56</v>
@@ -6851,7 +6862,7 @@
         <v>111</v>
       </c>
       <c r="M94" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N94" s="5" t="s">
         <v>189</v>
@@ -6887,7 +6898,7 @@
         <v>111</v>
       </c>
       <c r="M95" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N95" s="5" t="s">
         <v>189</v>
@@ -6923,7 +6934,7 @@
         <v>111</v>
       </c>
       <c r="M96" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N96" s="7" t="s">
         <v>123</v>
@@ -6931,7 +6942,7 @@
     </row>
     <row r="97" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>56</v>
@@ -6959,7 +6970,7 @@
         <v>111</v>
       </c>
       <c r="M97" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N97" s="7" t="s">
         <v>123</v>
@@ -7002,7 +7013,7 @@
         <v>111</v>
       </c>
       <c r="M98" s="24" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N98" s="19" t="s">
         <v>123</v>
@@ -7038,7 +7049,7 @@
         <v>111</v>
       </c>
       <c r="M99" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N99" s="7" t="s">
         <v>123</v>
@@ -7074,7 +7085,7 @@
         <v>111</v>
       </c>
       <c r="M100" s="23" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N100" s="5" t="s">
         <v>235</v>
@@ -7110,7 +7121,7 @@
         <v>111</v>
       </c>
       <c r="M101" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N101" s="7" t="s">
         <v>128</v>
@@ -7146,7 +7157,7 @@
         <v>111</v>
       </c>
       <c r="M102" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N102" s="10" t="s">
         <v>213</v>
@@ -7187,7 +7198,7 @@
       <c r="K103" s="24"/>
       <c r="L103" s="24"/>
       <c r="M103" s="24" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="N103" s="19" t="s">
         <v>217</v>
@@ -7223,7 +7234,7 @@
         <v>111</v>
       </c>
       <c r="M104" s="23" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N104" s="5" t="s">
         <v>410</v>
@@ -7259,7 +7270,7 @@
         <v>111</v>
       </c>
       <c r="M105" s="23" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="N105" s="5" t="s">
         <v>177</v>
@@ -7295,7 +7306,7 @@
         <v>111</v>
       </c>
       <c r="M106" s="23" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="N106" s="5" t="s">
         <v>177</v>
@@ -7331,7 +7342,7 @@
         <v>111</v>
       </c>
       <c r="M107" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N107" s="5" t="s">
         <v>410</v>
@@ -7367,7 +7378,7 @@
         <v>349</v>
       </c>
       <c r="M108" s="25" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N108" s="5" t="s">
         <v>406</v>
@@ -7403,7 +7414,7 @@
         <v>349</v>
       </c>
       <c r="M109" s="25" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N109" s="5" t="s">
         <v>408</v>
@@ -7439,7 +7450,7 @@
         <v>349</v>
       </c>
       <c r="M110" s="25" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N110" s="5" t="s">
         <v>408</v>
@@ -7475,7 +7486,7 @@
         <v>349</v>
       </c>
       <c r="M111" s="25" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N111" s="5" t="s">
         <v>406</v>
@@ -7511,7 +7522,7 @@
         <v>349</v>
       </c>
       <c r="M112" s="25" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N112" s="5" t="s">
         <v>409</v>
@@ -7547,7 +7558,7 @@
         <v>349</v>
       </c>
       <c r="M113" s="25" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N113" s="5" t="s">
         <v>406</v>
@@ -7583,7 +7594,7 @@
         <v>349</v>
       </c>
       <c r="M114" s="25" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N114" s="5" t="s">
         <v>406</v>
@@ -7619,7 +7630,7 @@
         <v>349</v>
       </c>
       <c r="M115" s="25" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N115" s="5" t="s">
         <v>408</v>
@@ -7655,7 +7666,7 @@
         <v>349</v>
       </c>
       <c r="M116" s="25" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N116" s="5" t="s">
         <v>409</v>
@@ -7691,7 +7702,7 @@
         <v>349</v>
       </c>
       <c r="M117" s="25" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N117" s="5" t="s">
         <v>407</v>
@@ -7727,7 +7738,7 @@
         <v>349</v>
       </c>
       <c r="M118" s="25" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N118" s="5" t="s">
         <v>407</v>
@@ -7763,7 +7774,7 @@
         <v>349</v>
       </c>
       <c r="M119" s="25" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N119" s="5" t="s">
         <v>407</v>
@@ -7799,7 +7810,7 @@
         <v>349</v>
       </c>
       <c r="M120" s="25" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N120" s="5" t="s">
         <v>407</v>
@@ -7835,7 +7846,7 @@
         <v>349</v>
       </c>
       <c r="M121" s="25" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N121" s="5" t="s">
         <v>407</v>
@@ -7871,7 +7882,7 @@
         <v>349</v>
       </c>
       <c r="M122" s="25" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N122" s="5" t="s">
         <v>407</v>
@@ -7907,7 +7918,7 @@
         <v>349</v>
       </c>
       <c r="M123" s="25" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N123" s="5" t="s">
         <v>284</v>
@@ -7943,7 +7954,7 @@
         <v>349</v>
       </c>
       <c r="M124" s="25" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N124" s="5" t="s">
         <v>285</v>
@@ -7979,7 +7990,7 @@
         <v>349</v>
       </c>
       <c r="M125" s="25" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N125" s="5" t="s">
         <v>285</v>
@@ -8015,7 +8026,7 @@
         <v>349</v>
       </c>
       <c r="M126" s="25" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N126" s="5" t="s">
         <v>285</v>
@@ -8051,7 +8062,7 @@
         <v>349</v>
       </c>
       <c r="M127" s="25" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N127" s="5" t="s">
         <v>286</v>
@@ -8087,7 +8098,7 @@
         <v>349</v>
       </c>
       <c r="M128" s="25" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N128" s="5" t="s">
         <v>286</v>
@@ -8123,7 +8134,7 @@
         <v>349</v>
       </c>
       <c r="M129" s="25" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N129" s="5" t="s">
         <v>286</v>
@@ -8161,7 +8172,7 @@
         <v>110</v>
       </c>
       <c r="M130" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N130" s="5" t="s">
         <v>290</v>
@@ -8199,7 +8210,7 @@
         <v>110</v>
       </c>
       <c r="M131" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N131" s="5" t="s">
         <v>290</v>
@@ -8237,7 +8248,7 @@
         <v>110</v>
       </c>
       <c r="M132" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N132" s="5" t="s">
         <v>291</v>
@@ -8275,7 +8286,7 @@
         <v>110</v>
       </c>
       <c r="M133" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N133" s="5" t="s">
         <v>291</v>
@@ -8310,7 +8321,7 @@
         <v>111</v>
       </c>
       <c r="M134" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N134" s="5" t="s">
         <v>141</v>
@@ -8345,7 +8356,7 @@
         <v>111</v>
       </c>
       <c r="M135" s="23" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N135" s="5" t="s">
         <v>141</v>
@@ -8380,7 +8391,7 @@
         <v>111</v>
       </c>
       <c r="M136" s="23" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N136" s="5" t="s">
         <v>149</v>
@@ -8415,7 +8426,7 @@
         <v>111</v>
       </c>
       <c r="M137" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N137" s="5" t="s">
         <v>149</v>
@@ -8450,7 +8461,7 @@
         <v>111</v>
       </c>
       <c r="M138" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N138" s="5" t="s">
         <v>150</v>
@@ -8485,7 +8496,7 @@
         <v>111</v>
       </c>
       <c r="M139" s="23" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N139" s="5" t="s">
         <v>321</v>
@@ -8520,7 +8531,7 @@
         <v>111</v>
       </c>
       <c r="M140" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N140" s="5" t="s">
         <v>322</v>
@@ -8555,7 +8566,7 @@
         <v>111</v>
       </c>
       <c r="M141" s="23" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N141" s="5" t="s">
         <v>322</v>
@@ -8590,7 +8601,7 @@
         <v>111</v>
       </c>
       <c r="M142" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N142" s="5" t="s">
         <v>323</v>
@@ -8625,7 +8636,7 @@
         <v>111</v>
       </c>
       <c r="M143" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N143" s="5" t="s">
         <v>324</v>
@@ -8660,7 +8671,7 @@
         <v>111</v>
       </c>
       <c r="M144" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N144" s="5" t="s">
         <v>325</v>
@@ -8695,7 +8706,7 @@
         <v>111</v>
       </c>
       <c r="M145" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N145" s="5" t="s">
         <v>326</v>
@@ -8730,7 +8741,7 @@
         <v>111</v>
       </c>
       <c r="M146" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N146" s="5" t="s">
         <v>327</v>
@@ -8765,7 +8776,7 @@
         <v>111</v>
       </c>
       <c r="M147" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N147" s="5" t="s">
         <v>327</v>
@@ -8800,7 +8811,7 @@
         <v>111</v>
       </c>
       <c r="M148" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N148" s="7" t="s">
         <v>123</v>
@@ -8808,7 +8819,7 @@
     </row>
     <row r="149" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>56</v>
@@ -8835,7 +8846,7 @@
         <v>111</v>
       </c>
       <c r="M149" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N149" s="7" t="s">
         <v>123</v>
@@ -8870,7 +8881,7 @@
         <v>111</v>
       </c>
       <c r="M150" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N150" s="7" t="s">
         <v>123</v>
@@ -8905,7 +8916,7 @@
         <v>111</v>
       </c>
       <c r="M151" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N151" s="7" t="s">
         <v>123</v>
@@ -8913,7 +8924,7 @@
     </row>
     <row r="152" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>56</v>
@@ -8940,7 +8951,7 @@
         <v>111</v>
       </c>
       <c r="M152" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N152" s="7" t="s">
         <v>123</v>
@@ -8975,7 +8986,7 @@
         <v>111</v>
       </c>
       <c r="M153" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N153" s="7" t="s">
         <v>123</v>
@@ -9010,7 +9021,7 @@
         <v>111</v>
       </c>
       <c r="M154" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N154" s="5" t="s">
         <v>356</v>
@@ -9045,7 +9056,7 @@
         <v>111</v>
       </c>
       <c r="M155" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N155" s="5" t="s">
         <v>355</v>
@@ -9080,7 +9091,7 @@
         <v>111</v>
       </c>
       <c r="M156" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N156" s="5" t="s">
         <v>357</v>
@@ -9118,7 +9129,7 @@
         <v>110</v>
       </c>
       <c r="M157" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N157" s="5" t="s">
         <v>391</v>
@@ -9156,7 +9167,7 @@
         <v>110</v>
       </c>
       <c r="M158" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N158" s="5" t="s">
         <v>391</v>
@@ -9194,7 +9205,7 @@
         <v>110</v>
       </c>
       <c r="M159" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N159" s="5" t="s">
         <v>392</v>
@@ -9232,7 +9243,7 @@
         <v>110</v>
       </c>
       <c r="M160" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N160" s="5" t="s">
         <v>392</v>
@@ -9270,7 +9281,7 @@
         <v>110</v>
       </c>
       <c r="M161" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N161" s="5" t="s">
         <v>393</v>
@@ -9308,7 +9319,7 @@
         <v>110</v>
       </c>
       <c r="M162" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N162" s="5" t="s">
         <v>393</v>
@@ -9346,7 +9357,7 @@
         <v>110</v>
       </c>
       <c r="M163" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N163" s="5" t="s">
         <v>394</v>
@@ -9384,7 +9395,7 @@
         <v>110</v>
       </c>
       <c r="M164" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N164" s="5" t="s">
         <v>394</v>
@@ -9422,7 +9433,7 @@
         <v>110</v>
       </c>
       <c r="M165" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N165" s="5" t="s">
         <v>395</v>
@@ -9460,7 +9471,7 @@
         <v>110</v>
       </c>
       <c r="M166" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N166" s="5" t="s">
         <v>395</v>
@@ -9498,7 +9509,7 @@
         <v>110</v>
       </c>
       <c r="M167" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N167" s="5" t="s">
         <v>396</v>
@@ -9536,7 +9547,7 @@
         <v>110</v>
       </c>
       <c r="M168" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N168" s="5" t="s">
         <v>396</v>
@@ -9574,7 +9585,7 @@
         <v>110</v>
       </c>
       <c r="M169" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N169" s="5" t="s">
         <v>397</v>
@@ -9612,7 +9623,7 @@
         <v>110</v>
       </c>
       <c r="M170" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N170" s="5" t="s">
         <v>397</v>
@@ -9650,7 +9661,7 @@
         <v>110</v>
       </c>
       <c r="M171" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N171" s="5" t="s">
         <v>398</v>
@@ -9688,7 +9699,7 @@
         <v>110</v>
       </c>
       <c r="M172" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N172" s="5" t="s">
         <v>398</v>
@@ -9730,7 +9741,7 @@
         <v>110</v>
       </c>
       <c r="M173" s="33" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N173" s="36" t="s">
         <v>399</v>
@@ -9768,7 +9779,7 @@
         <v>110</v>
       </c>
       <c r="M174" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N174" s="5" t="s">
         <v>399</v>
@@ -9803,7 +9814,7 @@
         <v>111</v>
       </c>
       <c r="M175" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N175" s="7" t="s">
         <v>123</v>
@@ -9811,7 +9822,7 @@
     </row>
     <row r="176" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>56</v>
@@ -9838,7 +9849,7 @@
         <v>111</v>
       </c>
       <c r="M176" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N176" s="7" t="s">
         <v>123</v>
@@ -9873,7 +9884,7 @@
         <v>111</v>
       </c>
       <c r="M177" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N177" s="7" t="s">
         <v>123</v>
@@ -9908,7 +9919,7 @@
         <v>111</v>
       </c>
       <c r="M178" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N178" s="7" t="s">
         <v>123</v>
@@ -9916,7 +9927,7 @@
     </row>
     <row r="179" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>56</v>
@@ -9943,7 +9954,7 @@
         <v>111</v>
       </c>
       <c r="M179" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N179" s="7" t="s">
         <v>123</v>
@@ -9978,7 +9989,7 @@
         <v>111</v>
       </c>
       <c r="M180" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N180" s="7" t="s">
         <v>123</v>
@@ -10018,7 +10029,7 @@
         <v>426</v>
       </c>
       <c r="M181" s="33" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N181" s="36" t="s">
         <v>425</v>
@@ -10058,7 +10069,7 @@
         <v>426</v>
       </c>
       <c r="M182" s="33" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N182" s="36" t="s">
         <v>425</v>
@@ -10081,7 +10092,7 @@
         <v>352</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I183" s="5" t="b">
         <v>0</v>
@@ -10099,7 +10110,7 @@
         <v>432</v>
       </c>
       <c r="N183" s="43" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="184" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -10207,7 +10218,7 @@
         <v>111</v>
       </c>
       <c r="M186" s="23" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="N186" s="5" t="s">
         <v>438</v>
@@ -10242,7 +10253,7 @@
         <v>111</v>
       </c>
       <c r="M187" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N187" s="5" t="s">
         <v>123</v>
@@ -10265,13 +10276,13 @@
         <v>482</v>
       </c>
       <c r="F188" s="21" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G188" s="18">
         <v>45565</v>
       </c>
       <c r="H188" s="15" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I188" s="15" t="b">
         <v>0</v>
@@ -10287,7 +10298,7 @@
         <v>111</v>
       </c>
       <c r="M188" s="24" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N188" s="19" t="s">
         <v>123</v>
@@ -10325,7 +10336,7 @@
         <v>111</v>
       </c>
       <c r="M189" s="23" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="N189" s="5" t="s">
         <v>474</v>
@@ -10363,7 +10374,7 @@
         <v>111</v>
       </c>
       <c r="M190" s="23" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="N190" s="5" t="s">
         <v>474</v>
@@ -10401,7 +10412,7 @@
         <v>111</v>
       </c>
       <c r="M191" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N191" s="5" t="s">
         <v>474</v>
@@ -10436,7 +10447,7 @@
         <v>111</v>
       </c>
       <c r="M192" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N192" s="7" t="s">
         <v>123</v>
@@ -10444,7 +10455,7 @@
     </row>
     <row r="193" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>56</v>
@@ -10471,7 +10482,7 @@
         <v>111</v>
       </c>
       <c r="M193" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N193" s="7" t="s">
         <v>123</v>
@@ -10506,7 +10517,7 @@
         <v>111</v>
       </c>
       <c r="M194" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N194" s="7" t="s">
         <v>123</v>
@@ -10541,7 +10552,7 @@
         <v>111</v>
       </c>
       <c r="M195" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N195" s="7" t="s">
         <v>123</v>
@@ -10549,7 +10560,7 @@
     </row>
     <row r="196" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>56</v>
@@ -10576,7 +10587,7 @@
         <v>111</v>
       </c>
       <c r="M196" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N196" s="7" t="s">
         <v>123</v>
@@ -10611,7 +10622,7 @@
         <v>111</v>
       </c>
       <c r="M197" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N197" s="7" t="s">
         <v>123</v>
@@ -10634,13 +10645,13 @@
         <v>482</v>
       </c>
       <c r="F198" s="21" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G198" s="18">
         <v>45565</v>
       </c>
       <c r="H198" s="15" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I198" s="15" t="b">
         <v>0</v>
@@ -10656,7 +10667,7 @@
         <v>111</v>
       </c>
       <c r="M198" s="24" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N198" s="19" t="s">
         <v>507</v>
@@ -10695,7 +10706,7 @@
         <v>110</v>
       </c>
       <c r="M199" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N199" s="5" t="s">
         <v>517</v>
@@ -10734,7 +10745,7 @@
         <v>110</v>
       </c>
       <c r="M200" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N200" s="5" t="s">
         <v>517</v>
@@ -10773,7 +10784,7 @@
         <v>110</v>
       </c>
       <c r="M201" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N201" s="5" t="s">
         <v>517</v>
@@ -10812,7 +10823,7 @@
         <v>110</v>
       </c>
       <c r="M202" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N202" s="5" t="s">
         <v>517</v>
@@ -10850,7 +10861,7 @@
         <v>110</v>
       </c>
       <c r="M203" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N203" s="5" t="s">
         <v>522</v>
@@ -10888,7 +10899,7 @@
         <v>110</v>
       </c>
       <c r="M204" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N204" s="5" t="s">
         <v>522</v>
@@ -10926,7 +10937,7 @@
         <v>110</v>
       </c>
       <c r="M205" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N205" s="5" t="s">
         <v>527</v>
@@ -10964,7 +10975,7 @@
         <v>110</v>
       </c>
       <c r="M206" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N206" s="5" t="s">
         <v>527</v>
@@ -11002,7 +11013,7 @@
         <v>110</v>
       </c>
       <c r="M207" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N207" s="5" t="s">
         <v>532</v>
@@ -11040,7 +11051,7 @@
         <v>110</v>
       </c>
       <c r="M208" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N208" s="5" t="s">
         <v>532</v>
@@ -11078,7 +11089,7 @@
         <v>110</v>
       </c>
       <c r="M209" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N209" s="5" t="s">
         <v>537</v>
@@ -11116,7 +11127,7 @@
         <v>110</v>
       </c>
       <c r="M210" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N210" s="5" t="s">
         <v>537</v>
@@ -11154,7 +11165,7 @@
         <v>110</v>
       </c>
       <c r="M211" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N211" s="5" t="s">
         <v>545</v>
@@ -11192,7 +11203,7 @@
         <v>110</v>
       </c>
       <c r="M212" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N212" s="5" t="s">
         <v>550</v>
@@ -11230,7 +11241,7 @@
         <v>110</v>
       </c>
       <c r="M213" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N213" s="5" t="s">
         <v>550</v>
@@ -11493,7 +11504,7 @@
         <v>580</v>
       </c>
       <c r="M220" s="23" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="N220" s="5" t="s">
         <v>579</v>
@@ -11528,7 +11539,7 @@
         <v>426</v>
       </c>
       <c r="M221" s="23" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N221" s="5" t="s">
         <v>586</v>
@@ -11563,7 +11574,7 @@
         <v>426</v>
       </c>
       <c r="M222" s="23" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N222" s="5" t="s">
         <v>586</v>
@@ -11601,7 +11612,7 @@
         <v>111</v>
       </c>
       <c r="M223" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N223" s="5" t="s">
         <v>591</v>
@@ -11609,7 +11620,7 @@
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B224" s="5" t="s">
         <v>588</v>
@@ -11639,7 +11650,7 @@
         <v>111</v>
       </c>
       <c r="M224" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N224" s="5" t="s">
         <v>591</v>
@@ -11662,13 +11673,13 @@
         <v>482</v>
       </c>
       <c r="F225" s="21" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G225" s="18">
         <v>45565</v>
       </c>
       <c r="H225" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I225" s="15" t="b">
         <v>0</v>
@@ -11683,7 +11694,7 @@
         <v>111</v>
       </c>
       <c r="M225" s="24" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N225" s="15" t="s">
         <v>591</v>
@@ -11721,7 +11732,7 @@
         <v>111</v>
       </c>
       <c r="M226" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N226" s="5" t="s">
         <v>591</v>
@@ -11759,7 +11770,7 @@
         <v>111</v>
       </c>
       <c r="M227" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N227" s="5" t="s">
         <v>507</v>
@@ -11782,13 +11793,13 @@
         <v>482</v>
       </c>
       <c r="F228" s="21" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G228" s="18">
         <v>45565</v>
       </c>
       <c r="H228" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I228" s="15" t="b">
         <v>0</v>
@@ -11803,7 +11814,7 @@
         <v>111</v>
       </c>
       <c r="M228" s="24" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N228" s="15" t="s">
         <v>591</v>
@@ -11841,7 +11852,7 @@
         <v>111</v>
       </c>
       <c r="M229" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N229" s="5" t="s">
         <v>591</v>
@@ -11861,7 +11872,7 @@
         <v>569</v>
       </c>
       <c r="E230" s="47" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F230" s="48">
         <v>45792</v>
@@ -11870,7 +11881,7 @@
         <v>45870</v>
       </c>
       <c r="H230" s="45" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I230" s="45" t="b">
         <v>0</v>
@@ -11885,7 +11896,7 @@
         <v>111</v>
       </c>
       <c r="M230" s="47" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N230" s="45" t="s">
         <v>591</v>
@@ -11905,7 +11916,7 @@
         <v>569</v>
       </c>
       <c r="E231" s="47" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F231" s="48">
         <v>45792</v>
@@ -11914,7 +11925,7 @@
         <v>45870</v>
       </c>
       <c r="H231" s="45" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I231" s="45" t="b">
         <v>0</v>
@@ -11929,7 +11940,7 @@
         <v>111</v>
       </c>
       <c r="M231" s="47" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N231" s="45" t="s">
         <v>591</v>
@@ -11949,7 +11960,7 @@
         <v>569</v>
       </c>
       <c r="E232" s="47" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F232" s="48">
         <v>45792</v>
@@ -11958,7 +11969,7 @@
         <v>45870</v>
       </c>
       <c r="H232" s="45" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I232" s="45" t="b">
         <v>0</v>
@@ -11973,7 +11984,7 @@
         <v>111</v>
       </c>
       <c r="M232" s="47" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N232" s="45" t="s">
         <v>507</v>
@@ -11993,7 +12004,7 @@
         <v>569</v>
       </c>
       <c r="E233" s="47" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F233" s="48">
         <v>45792</v>
@@ -12002,7 +12013,7 @@
         <v>45870</v>
       </c>
       <c r="H233" s="45" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I233" s="45" t="b">
         <v>0</v>
@@ -12017,7 +12028,7 @@
         <v>111</v>
       </c>
       <c r="M233" s="47" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N233" s="45" t="s">
         <v>507</v>
@@ -12055,7 +12066,7 @@
         <v>111</v>
       </c>
       <c r="M234" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N234" s="5" t="s">
         <v>591</v>
@@ -12093,7 +12104,7 @@
         <v>111</v>
       </c>
       <c r="M235" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N235" s="5" t="s">
         <v>591</v>
@@ -12131,7 +12142,7 @@
         <v>111</v>
       </c>
       <c r="M236" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N236" s="5" t="s">
         <v>507</v>
@@ -12169,7 +12180,7 @@
         <v>111</v>
       </c>
       <c r="M237" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N237" s="5" t="s">
         <v>507</v>
@@ -12204,7 +12215,7 @@
         <v>111</v>
       </c>
       <c r="M238" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N238" s="7" t="s">
         <v>123</v>
@@ -12212,7 +12223,7 @@
     </row>
     <row r="239" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B239" s="4" t="s">
         <v>56</v>
@@ -12239,7 +12250,7 @@
         <v>111</v>
       </c>
       <c r="M239" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N239" s="7" t="s">
         <v>123</v>
@@ -12274,7 +12285,7 @@
         <v>111</v>
       </c>
       <c r="M240" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N240" s="7" t="s">
         <v>123</v>
@@ -12309,7 +12320,7 @@
         <v>111</v>
       </c>
       <c r="M241" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N241" s="7" t="s">
         <v>123</v>
@@ -12317,7 +12328,7 @@
     </row>
     <row r="242" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B242" s="4" t="s">
         <v>56</v>
@@ -12344,7 +12355,7 @@
         <v>111</v>
       </c>
       <c r="M242" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N242" s="7" t="s">
         <v>123</v>
@@ -12379,7 +12390,7 @@
         <v>111</v>
       </c>
       <c r="M243" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N243" s="7" t="s">
         <v>123</v>
@@ -12417,7 +12428,7 @@
         <v>111</v>
       </c>
       <c r="M244" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N244" s="5" t="s">
         <v>591</v>
@@ -12455,7 +12466,7 @@
         <v>111</v>
       </c>
       <c r="M245" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N245" s="5" t="s">
         <v>591</v>
@@ -12493,7 +12504,7 @@
         <v>111</v>
       </c>
       <c r="M246" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N246" s="5" t="s">
         <v>591</v>
@@ -12531,7 +12542,7 @@
         <v>111</v>
       </c>
       <c r="M247" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N247" s="5" t="s">
         <v>591</v>
@@ -12569,7 +12580,7 @@
         <v>111</v>
       </c>
       <c r="M248" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N248" s="5" t="s">
         <v>507</v>
@@ -12607,182 +12618,206 @@
         <v>111</v>
       </c>
       <c r="M249" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N249" s="5" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+    <row r="250" spans="1:14" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A250" s="49" t="s">
         <v>633</v>
       </c>
-      <c r="B250" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C250" s="1" t="s">
+      <c r="B250" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C250" s="51" t="s">
         <v>637</v>
       </c>
-      <c r="D250" s="28" t="s">
+      <c r="D250" s="52" t="s">
         <v>631</v>
       </c>
-      <c r="E250" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H250" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="I250" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J250" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K250" s="23">
+      <c r="E250" s="47" t="s">
+        <v>779</v>
+      </c>
+      <c r="F250" s="48">
+        <v>45792</v>
+      </c>
+      <c r="G250" s="48">
+        <v>45817</v>
+      </c>
+      <c r="H250" s="45" t="s">
+        <v>780</v>
+      </c>
+      <c r="I250" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J250" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K250" s="47">
         <v>3</v>
       </c>
-      <c r="L250" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M250" s="23" t="s">
+      <c r="L250" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="M250" s="47" t="s">
+        <v>693</v>
+      </c>
+      <c r="N250" s="45" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A251" s="49" t="s">
+        <v>634</v>
+      </c>
+      <c r="B251" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C251" s="51" t="s">
+        <v>638</v>
+      </c>
+      <c r="D251" s="52" t="s">
+        <v>631</v>
+      </c>
+      <c r="E251" s="47" t="s">
+        <v>779</v>
+      </c>
+      <c r="F251" s="48">
+        <v>45792</v>
+      </c>
+      <c r="G251" s="48">
+        <v>45817</v>
+      </c>
+      <c r="H251" s="45" t="s">
+        <v>780</v>
+      </c>
+      <c r="I251" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J251" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K251" s="47">
+        <v>3</v>
+      </c>
+      <c r="L251" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="M251" s="47" t="s">
         <v>694</v>
       </c>
-      <c r="N250" s="5" t="s">
+      <c r="N251" s="45" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="251" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>634</v>
-      </c>
-      <c r="B251" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="D251" s="28" t="s">
+    <row r="252" spans="1:14" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A252" s="49" t="s">
+        <v>635</v>
+      </c>
+      <c r="B252" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C252" s="51" t="s">
+        <v>639</v>
+      </c>
+      <c r="D252" s="52" t="s">
         <v>631</v>
       </c>
-      <c r="E251" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H251" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="I251" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J251" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K251" s="23">
+      <c r="E252" s="47" t="s">
+        <v>779</v>
+      </c>
+      <c r="F252" s="48">
+        <v>45792</v>
+      </c>
+      <c r="G252" s="48">
+        <v>45817</v>
+      </c>
+      <c r="H252" s="45" t="s">
+        <v>780</v>
+      </c>
+      <c r="I252" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J252" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K252" s="47">
         <v>3</v>
       </c>
-      <c r="L251" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M251" s="23" t="s">
-        <v>695</v>
-      </c>
-      <c r="N251" s="5" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>635</v>
-      </c>
-      <c r="B252" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="D252" s="28" t="s">
+      <c r="L252" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="M252" s="47" t="s">
+        <v>693</v>
+      </c>
+      <c r="N252" s="45" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A253" s="49" t="s">
+        <v>636</v>
+      </c>
+      <c r="B253" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C253" s="51" t="s">
+        <v>640</v>
+      </c>
+      <c r="D253" s="52" t="s">
         <v>631</v>
       </c>
-      <c r="E252" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H252" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="I252" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J252" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K252" s="23">
+      <c r="E253" s="47" t="s">
+        <v>779</v>
+      </c>
+      <c r="F253" s="48">
+        <v>45792</v>
+      </c>
+      <c r="G253" s="48">
+        <v>45817</v>
+      </c>
+      <c r="H253" s="45" t="s">
+        <v>780</v>
+      </c>
+      <c r="I253" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J253" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K253" s="47">
         <v>3</v>
       </c>
-      <c r="L252" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M252" s="23" t="s">
+      <c r="L253" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="M253" s="47" t="s">
         <v>694</v>
       </c>
-      <c r="N252" s="5" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="253" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>636</v>
-      </c>
-      <c r="B253" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="D253" s="28" t="s">
-        <v>631</v>
-      </c>
-      <c r="E253" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H253" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="I253" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J253" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K253" s="23">
-        <v>3</v>
-      </c>
-      <c r="L253" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M253" s="23" t="s">
-        <v>695</v>
-      </c>
-      <c r="N253" s="5" t="s">
+      <c r="N253" s="45" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C254" t="s">
+        <v>647</v>
+      </c>
+      <c r="D254" s="27" t="s">
         <v>644</v>
       </c>
-      <c r="B254" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C254" t="s">
-        <v>648</v>
-      </c>
-      <c r="D254" s="27" t="s">
-        <v>645</v>
-      </c>
       <c r="E254" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H254" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I254" s="5" t="b">
         <v>0</v>
@@ -12794,30 +12829,30 @@
         <v>580</v>
       </c>
       <c r="M254" s="23" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="N254" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D255" s="27" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E255" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H255" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I255" s="5" t="b">
         <v>0</v>
@@ -12829,30 +12864,30 @@
         <v>580</v>
       </c>
       <c r="M255" s="23" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="N255" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C256" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="B256" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C256" s="5" t="s">
-        <v>651</v>
-      </c>
       <c r="D256" s="27" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E256" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H256" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I256" s="5" t="b">
         <v>0</v>
@@ -12864,30 +12899,30 @@
         <v>580</v>
       </c>
       <c r="M256" s="23" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="N256" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D257" s="27" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E257" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I257" s="5" t="b">
         <v>0</v>
@@ -12899,30 +12934,30 @@
         <v>580</v>
       </c>
       <c r="M257" s="23" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="N257" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C258" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="B258" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C258" s="5" t="s">
-        <v>654</v>
-      </c>
       <c r="D258" s="27" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E258" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H258" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I258" s="5" t="b">
         <v>0</v>
@@ -12934,30 +12969,30 @@
         <v>580</v>
       </c>
       <c r="M258" s="23" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="N258" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B259" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D259" s="27" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E259" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H259" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I259" s="5" t="b">
         <v>0</v>
@@ -12969,30 +13004,30 @@
         <v>580</v>
       </c>
       <c r="M259" s="23" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="N259" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="260" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B260" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D260" s="27" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E260" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H260" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I260" s="5" t="b">
         <v>0</v>
@@ -13004,30 +13039,30 @@
         <v>580</v>
       </c>
       <c r="M260" s="23" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="N260" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="261" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B261" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D261" s="27" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E261" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H261" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I261" s="5" t="b">
         <v>0</v>
@@ -13039,30 +13074,30 @@
         <v>580</v>
       </c>
       <c r="M261" s="23" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="N261" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="262" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B262" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D262" s="27" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E262" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H262" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I262" s="5" t="b">
         <v>0</v>
@@ -13074,30 +13109,30 @@
         <v>580</v>
       </c>
       <c r="M262" s="23" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="N262" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="263" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B263" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D263" s="27" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E263" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I263" s="5" t="b">
         <v>0</v>
@@ -13109,30 +13144,30 @@
         <v>580</v>
       </c>
       <c r="M263" s="23" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="N263" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="264" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B264" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D264" s="27" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E264" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H264" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I264" s="5" t="b">
         <v>0</v>
@@ -13144,30 +13179,30 @@
         <v>580</v>
       </c>
       <c r="M264" s="23" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="N264" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="265" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B265" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D265" s="27" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E265" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I265" s="5" t="b">
         <v>0</v>
@@ -13179,30 +13214,30 @@
         <v>580</v>
       </c>
       <c r="M265" s="23" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="N265" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="266" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B266" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D266" s="27" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E266" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H266" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I266" s="5" t="b">
         <v>0</v>
@@ -13214,30 +13249,30 @@
         <v>580</v>
       </c>
       <c r="M266" s="23" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="N266" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="267" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B267" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D267" s="27" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E267" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H267" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I267" s="5" t="b">
         <v>0</v>
@@ -13249,30 +13284,30 @@
         <v>580</v>
       </c>
       <c r="M267" s="23" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="N267" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="268" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="D268" s="27" t="s">
+        <v>644</v>
+      </c>
+      <c r="E268" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H268" s="5" t="s">
         <v>680</v>
-      </c>
-      <c r="B268" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C268" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="D268" s="27" t="s">
-        <v>645</v>
-      </c>
-      <c r="E268" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H268" s="5" t="s">
-        <v>681</v>
       </c>
       <c r="I268" s="5" t="b">
         <v>0</v>
@@ -13284,30 +13319,30 @@
         <v>580</v>
       </c>
       <c r="M268" s="23" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="N268" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="269" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B269" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D269" s="27" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E269" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H269" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I269" s="5" t="b">
         <v>0</v>
@@ -13323,30 +13358,30 @@
         <v>111</v>
       </c>
       <c r="M269" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N269" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="270" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B270" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C270" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="D270" s="27" t="s">
         <v>711</v>
       </c>
-      <c r="D270" s="27" t="s">
-        <v>712</v>
-      </c>
       <c r="E270" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H270" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I270" s="5" t="b">
         <v>0</v>
@@ -13362,30 +13397,30 @@
         <v>111</v>
       </c>
       <c r="M270" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N270" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="271" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="D271" s="27" t="s">
+        <v>711</v>
+      </c>
+      <c r="E271" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H271" s="5" t="s">
         <v>715</v>
-      </c>
-      <c r="B271" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C271" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="D271" s="27" t="s">
-        <v>712</v>
-      </c>
-      <c r="E271" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H271" s="5" t="s">
-        <v>716</v>
       </c>
       <c r="I271" s="5" t="b">
         <v>0</v>
@@ -13397,30 +13432,30 @@
         <v>580</v>
       </c>
       <c r="M271" s="23" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="N271" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="272" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B272" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D272" s="27" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E272" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H272" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I272" s="5" t="b">
         <v>0</v>
@@ -13433,33 +13468,33 @@
         <v>1</v>
       </c>
       <c r="L272" s="23" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="M272" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N272" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="273" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B273" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D273" s="27" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E273" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H273" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I273" s="5" t="b">
         <v>0</v>
@@ -13472,33 +13507,33 @@
         <v>1</v>
       </c>
       <c r="L273" s="23" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="M273" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N273" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="274" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B274" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D274" s="27" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E274" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H274" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I274" s="5" t="b">
         <v>0</v>
@@ -13511,33 +13546,33 @@
         <v>1</v>
       </c>
       <c r="L274" s="23" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="M274" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N274" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="275" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B275" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D275" s="27" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E275" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H275" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I275" s="5" t="b">
         <v>0</v>
@@ -13550,33 +13585,33 @@
         <v>1</v>
       </c>
       <c r="L275" s="23" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="M275" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N275" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="276" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C276" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="B276" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C276" s="5" t="s">
-        <v>728</v>
-      </c>
       <c r="D276" s="27" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E276" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H276" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I276" s="5" t="b">
         <v>0</v>
@@ -13589,33 +13624,33 @@
         <v>1</v>
       </c>
       <c r="L276" s="23" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="M276" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N276" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="277" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B277" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D277" s="27" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E277" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H277" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I277" s="5" t="b">
         <v>0</v>
@@ -13628,33 +13663,33 @@
         <v>1</v>
       </c>
       <c r="L277" s="23" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="M277" s="23" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="N277" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="278" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D278" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="E278" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H278" s="5" t="s">
         <v>741</v>
-      </c>
-      <c r="E278" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H278" s="5" t="s">
-        <v>742</v>
       </c>
       <c r="I278" s="5" t="b">
         <v>0</v>
@@ -13667,33 +13702,33 @@
         <v>1</v>
       </c>
       <c r="L278" s="23" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="M278" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N278" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="279" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B279" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C279" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="D279" s="28" t="s">
         <v>740</v>
       </c>
-      <c r="D279" s="28" t="s">
+      <c r="E279" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H279" s="5" t="s">
         <v>741</v>
-      </c>
-      <c r="E279" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H279" s="5" t="s">
-        <v>742</v>
       </c>
       <c r="I279" s="5" t="b">
         <v>0</v>
@@ -13706,33 +13741,33 @@
         <v>1</v>
       </c>
       <c r="L279" s="23" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="M279" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N279" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B280" s="5" t="s">
         <v>588</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D280" s="28" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E280" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H280" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I280" s="5" t="b">
         <v>0</v>
@@ -13748,7 +13783,7 @@
         <v>111</v>
       </c>
       <c r="M280" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N280" s="5" t="s">
         <v>591</v>
@@ -13756,22 +13791,22 @@
     </row>
     <row r="281" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B281" s="5" t="s">
         <v>588</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D281" s="28" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E281" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H281" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I281" s="5" t="b">
         <v>0</v>
@@ -13787,7 +13822,7 @@
         <v>111</v>
       </c>
       <c r="M281" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N281" s="5" t="s">
         <v>591</v>
@@ -13795,22 +13830,22 @@
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B282" s="5" t="s">
         <v>588</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D282" s="28" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E282" s="23" t="s">
         <v>352</v>
       </c>
       <c r="H282" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I282" s="5" t="b">
         <v>0</v>
@@ -13826,7 +13861,7 @@
         <v>111</v>
       </c>
       <c r="M282" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N282" s="5" t="s">
         <v>507</v>
@@ -13834,22 +13869,22 @@
     </row>
     <row r="283" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B283" s="5" t="s">
         <v>588</v>
       </c>
       <c r="C283" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D283" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="E283" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H283" s="5" t="s">
         <v>750</v>
-      </c>
-      <c r="D283" s="28" t="s">
-        <v>741</v>
-      </c>
-      <c r="E283" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="H283" s="5" t="s">
-        <v>751</v>
       </c>
       <c r="I283" s="5" t="b">
         <v>0</v>
@@ -13865,7 +13900,7 @@
         <v>111</v>
       </c>
       <c r="M283" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N283" s="5" t="s">
         <v>507</v>

--- a/work-in-progress/Peppol Code Lists - Document types v9.1.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v9.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC42692-FB72-4D61-94CD-3C1D06F73239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30077CD-8446-45DE-B11A-455823A18F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17895" yWindow="135" windowWidth="25560" windowHeight="20745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="781">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -2579,7 +2579,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2705,9 +2705,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3141,8 +3138,8 @@
   <dimension ref="A1:N283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A283" sqref="A283"/>
+      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A233" sqref="A233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11858,179 +11855,179 @@
         <v>591</v>
       </c>
     </row>
-    <row r="230" spans="1:14" s="45" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A230" s="45" t="s">
+    <row r="230" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A230" s="36" t="s">
         <v>598</v>
       </c>
-      <c r="B230" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C230" s="45" t="s">
+      <c r="B230" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C230" s="36" t="s">
         <v>599</v>
       </c>
-      <c r="D230" s="46" t="s">
+      <c r="D230" s="32" t="s">
         <v>569</v>
       </c>
-      <c r="E230" s="47" t="s">
-        <v>779</v>
-      </c>
-      <c r="F230" s="48">
-        <v>45792</v>
-      </c>
-      <c r="G230" s="48">
-        <v>45870</v>
-      </c>
-      <c r="H230" s="45" t="s">
+      <c r="E230" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="F230" s="41" t="s">
+        <v>740</v>
+      </c>
+      <c r="G230" s="35">
+        <v>45717</v>
+      </c>
+      <c r="H230" s="36" t="s">
         <v>751</v>
       </c>
-      <c r="I230" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J230" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="K230" s="47">
+      <c r="I230" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J230" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="K230" s="33">
         <v>3</v>
       </c>
-      <c r="L230" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="M230" s="47" t="s">
+      <c r="L230" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="M230" s="33" t="s">
         <v>693</v>
       </c>
-      <c r="N230" s="45" t="s">
+      <c r="N230" s="36" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="231" spans="1:14" s="45" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A231" s="45" t="s">
+    <row r="231" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A231" s="36" t="s">
         <v>600</v>
       </c>
-      <c r="B231" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C231" s="45" t="s">
+      <c r="B231" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C231" s="36" t="s">
         <v>601</v>
       </c>
-      <c r="D231" s="46" t="s">
+      <c r="D231" s="32" t="s">
         <v>569</v>
       </c>
-      <c r="E231" s="47" t="s">
-        <v>779</v>
-      </c>
-      <c r="F231" s="48">
-        <v>45792</v>
-      </c>
-      <c r="G231" s="48">
-        <v>45870</v>
-      </c>
-      <c r="H231" s="45" t="s">
+      <c r="E231" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="F231" s="41" t="s">
+        <v>740</v>
+      </c>
+      <c r="G231" s="35">
+        <v>45717</v>
+      </c>
+      <c r="H231" s="36" t="s">
         <v>751</v>
       </c>
-      <c r="I231" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J231" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="K231" s="47">
+      <c r="I231" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J231" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="K231" s="33">
         <v>3</v>
       </c>
-      <c r="L231" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="M231" s="47" t="s">
+      <c r="L231" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="M231" s="33" t="s">
         <v>694</v>
       </c>
-      <c r="N231" s="45" t="s">
+      <c r="N231" s="36" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="232" spans="1:14" s="45" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A232" s="45" t="s">
+    <row r="232" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A232" s="36" t="s">
         <v>602</v>
       </c>
-      <c r="B232" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C232" s="45" t="s">
+      <c r="B232" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C232" s="36" t="s">
         <v>603</v>
       </c>
-      <c r="D232" s="46" t="s">
+      <c r="D232" s="32" t="s">
         <v>569</v>
       </c>
-      <c r="E232" s="47" t="s">
-        <v>779</v>
-      </c>
-      <c r="F232" s="48">
-        <v>45792</v>
-      </c>
-      <c r="G232" s="48">
-        <v>45870</v>
-      </c>
-      <c r="H232" s="45" t="s">
+      <c r="E232" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="F232" s="41" t="s">
+        <v>740</v>
+      </c>
+      <c r="G232" s="35">
+        <v>45717</v>
+      </c>
+      <c r="H232" s="36" t="s">
         <v>751</v>
       </c>
-      <c r="I232" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J232" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="K232" s="47">
+      <c r="I232" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J232" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K232" s="33">
         <v>3</v>
       </c>
-      <c r="L232" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="M232" s="47" t="s">
+      <c r="L232" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="M232" s="33" t="s">
         <v>693</v>
       </c>
-      <c r="N232" s="45" t="s">
+      <c r="N232" s="36" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="233" spans="1:14" s="45" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A233" s="45" t="s">
+    <row r="233" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A233" s="36" t="s">
         <v>604</v>
       </c>
-      <c r="B233" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C233" s="45" t="s">
+      <c r="B233" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C233" s="36" t="s">
         <v>605</v>
       </c>
-      <c r="D233" s="46" t="s">
+      <c r="D233" s="32" t="s">
         <v>569</v>
       </c>
-      <c r="E233" s="47" t="s">
-        <v>779</v>
-      </c>
-      <c r="F233" s="48">
-        <v>45792</v>
-      </c>
-      <c r="G233" s="48">
-        <v>45870</v>
-      </c>
-      <c r="H233" s="45" t="s">
+      <c r="E233" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="F233" s="41" t="s">
+        <v>740</v>
+      </c>
+      <c r="G233" s="35">
+        <v>45717</v>
+      </c>
+      <c r="H233" s="36" t="s">
         <v>751</v>
       </c>
-      <c r="I233" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J233" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="K233" s="47">
+      <c r="I233" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J233" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K233" s="33">
         <v>3</v>
       </c>
-      <c r="L233" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="M233" s="47" t="s">
+      <c r="L233" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="M233" s="33" t="s">
         <v>694</v>
       </c>
-      <c r="N233" s="45" t="s">
+      <c r="N233" s="36" t="s">
         <v>507</v>
       </c>
     </row>
@@ -12625,25 +12622,25 @@
       </c>
     </row>
     <row r="250" spans="1:14" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A250" s="49" t="s">
+      <c r="A250" s="48" t="s">
         <v>633</v>
       </c>
-      <c r="B250" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C250" s="51" t="s">
+      <c r="B250" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C250" s="50" t="s">
         <v>637</v>
       </c>
-      <c r="D250" s="52" t="s">
+      <c r="D250" s="51" t="s">
         <v>631</v>
       </c>
-      <c r="E250" s="47" t="s">
+      <c r="E250" s="46" t="s">
         <v>779</v>
       </c>
-      <c r="F250" s="48">
+      <c r="F250" s="47">
         <v>45792</v>
       </c>
-      <c r="G250" s="48">
+      <c r="G250" s="47">
         <v>45817</v>
       </c>
       <c r="H250" s="45" t="s">
@@ -12655,13 +12652,13 @@
       <c r="J250" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="K250" s="47">
+      <c r="K250" s="46">
         <v>3</v>
       </c>
-      <c r="L250" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="M250" s="47" t="s">
+      <c r="L250" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="M250" s="46" t="s">
         <v>693</v>
       </c>
       <c r="N250" s="45" t="s">
@@ -12669,25 +12666,25 @@
       </c>
     </row>
     <row r="251" spans="1:14" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A251" s="49" t="s">
+      <c r="A251" s="48" t="s">
         <v>634</v>
       </c>
-      <c r="B251" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C251" s="51" t="s">
+      <c r="B251" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C251" s="50" t="s">
         <v>638</v>
       </c>
-      <c r="D251" s="52" t="s">
+      <c r="D251" s="51" t="s">
         <v>631</v>
       </c>
-      <c r="E251" s="47" t="s">
+      <c r="E251" s="46" t="s">
         <v>779</v>
       </c>
-      <c r="F251" s="48">
+      <c r="F251" s="47">
         <v>45792</v>
       </c>
-      <c r="G251" s="48">
+      <c r="G251" s="47">
         <v>45817</v>
       </c>
       <c r="H251" s="45" t="s">
@@ -12699,13 +12696,13 @@
       <c r="J251" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="K251" s="47">
+      <c r="K251" s="46">
         <v>3</v>
       </c>
-      <c r="L251" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="M251" s="47" t="s">
+      <c r="L251" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="M251" s="46" t="s">
         <v>694</v>
       </c>
       <c r="N251" s="45" t="s">
@@ -12713,25 +12710,25 @@
       </c>
     </row>
     <row r="252" spans="1:14" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A252" s="49" t="s">
+      <c r="A252" s="48" t="s">
         <v>635</v>
       </c>
-      <c r="B252" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C252" s="51" t="s">
+      <c r="B252" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C252" s="50" t="s">
         <v>639</v>
       </c>
-      <c r="D252" s="52" t="s">
+      <c r="D252" s="51" t="s">
         <v>631</v>
       </c>
-      <c r="E252" s="47" t="s">
+      <c r="E252" s="46" t="s">
         <v>779</v>
       </c>
-      <c r="F252" s="48">
+      <c r="F252" s="47">
         <v>45792</v>
       </c>
-      <c r="G252" s="48">
+      <c r="G252" s="47">
         <v>45817</v>
       </c>
       <c r="H252" s="45" t="s">
@@ -12743,13 +12740,13 @@
       <c r="J252" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="K252" s="47">
+      <c r="K252" s="46">
         <v>3</v>
       </c>
-      <c r="L252" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="M252" s="47" t="s">
+      <c r="L252" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="M252" s="46" t="s">
         <v>693</v>
       </c>
       <c r="N252" s="45" t="s">
@@ -12757,25 +12754,25 @@
       </c>
     </row>
     <row r="253" spans="1:14" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A253" s="49" t="s">
+      <c r="A253" s="48" t="s">
         <v>636</v>
       </c>
-      <c r="B253" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C253" s="51" t="s">
+      <c r="B253" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C253" s="50" t="s">
         <v>640</v>
       </c>
-      <c r="D253" s="52" t="s">
+      <c r="D253" s="51" t="s">
         <v>631</v>
       </c>
-      <c r="E253" s="47" t="s">
+      <c r="E253" s="46" t="s">
         <v>779</v>
       </c>
-      <c r="F253" s="48">
+      <c r="F253" s="47">
         <v>45792</v>
       </c>
-      <c r="G253" s="48">
+      <c r="G253" s="47">
         <v>45817</v>
       </c>
       <c r="H253" s="45" t="s">
@@ -12787,13 +12784,13 @@
       <c r="J253" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="K253" s="47">
+      <c r="K253" s="46">
         <v>3</v>
       </c>
-      <c r="L253" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="M253" s="47" t="s">
+      <c r="L253" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="M253" s="46" t="s">
         <v>694</v>
       </c>
       <c r="N253" s="45" t="s">

--- a/work-in-progress/Peppol Code Lists - Document types v9.1.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v9.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30077CD-8446-45DE-B11A-455823A18F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FAE16A-BF01-494C-ABDD-CDD48BD87A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17895" yWindow="135" windowWidth="25560" windowHeight="20745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="825">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -2450,6 +2450,145 @@
   <si>
     <t>TICC-328
 TICC-374</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:cen.eu:en16931:2017#conformant#urn:peppol:eb2b:1.0::2.1</t>
+  </si>
+  <si>
+    <t>TICC-376</t>
+  </si>
+  <si>
+    <t>eB2B</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:peppol:eb2b:billing
+cenbii-procid-ubl::urn:peppol:eb2b:order_desadv_billing
+cenbii-procid-ubl::urn:peppol:eb2b:ordering_desadv_billing</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:CreditNote-2::CreditNote##urn:cen.eu:en16931:2017#conformant#urn:peppol:eb2b:1.0::2.1</t>
+  </si>
+  <si>
+    <t>EN 16931 Invoice - eB2B Extension</t>
+  </si>
+  <si>
+    <t>EN 16931 Credit Note - eB2B Extension</t>
+  </si>
+  <si>
+    <t>urn:peppol:doctype:edifact:ORDERS##eb2b::0</t>
+  </si>
+  <si>
+    <t>EDIFACT Order - eB2B Extension</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:peppol:eb2b:order
+cenbii-procid-ubl::urn:peppol:eb2b:ordering
+cenbii-procid-ubl::urn:peppol:eb2b:order_desadv_billing
+cenbii-procid-ubl::urn:peppol:eb2b:ordering_desadv_billing</t>
+  </si>
+  <si>
+    <t>urn:peppol:doctype:edifact:ORDRSP##eb2b::0</t>
+  </si>
+  <si>
+    <t>EDIFACT Order Response - eB2B Extension</t>
+  </si>
+  <si>
+    <t>urn:peppol:doctype:edifact:DESADV##eb2b::0</t>
+  </si>
+  <si>
+    <t>EDIFACT Despatch Advice - eB2B Extension</t>
+  </si>
+  <si>
+    <t>urn:peppol:doctype:edifact:INVOIC##eb2b::0</t>
+  </si>
+  <si>
+    <t>EDIFACT Invoice - eB2B Extension</t>
+  </si>
+  <si>
+    <t>urn:peppol:doctype:x12:850##eb2b::0</t>
+  </si>
+  <si>
+    <t>X12 Order - eB2B Extension</t>
+  </si>
+  <si>
+    <t>X12 Order Response - eB2B Extension</t>
+  </si>
+  <si>
+    <t>X12 Despatch Advice - eB2B Extension</t>
+  </si>
+  <si>
+    <t>X12 Invoice - eB2B Extension</t>
+  </si>
+  <si>
+    <t>urn:peppol:doctype:x12:855##eb2b::0</t>
+  </si>
+  <si>
+    <t>urn:peppol:doctype:x12:856##eb2b::0</t>
+  </si>
+  <si>
+    <t>urn:peppol:doctype:x12:810##eb2b::0</t>
+  </si>
+  <si>
+    <t>Hybrid Order - eB2B Extension</t>
+  </si>
+  <si>
+    <t>urn:peppol:doctype:pdf+xml##eb2b:order-x:1.0::0</t>
+  </si>
+  <si>
+    <t>urn:peppol:doctype:pdf+xml##eb2b:factur-x:1.0::0</t>
+  </si>
+  <si>
+    <t>Hybrid Invoice - eB2B Extension</t>
+  </si>
+  <si>
+    <t>urn:peppol:doctype:bilateral##eb2b:order::0</t>
+  </si>
+  <si>
+    <t>Bilaterally agreed Order - eB2B Extension</t>
+  </si>
+  <si>
+    <t>urn:peppol:doctype:bilateral##eb2b:order_response::0</t>
+  </si>
+  <si>
+    <t>Bilaterally agreed Order Response - eB2B Extension</t>
+  </si>
+  <si>
+    <t>urn:peppol:doctype:bilateral##eb2b:despatch_advice::0</t>
+  </si>
+  <si>
+    <t>Bilaterally agreed Despatch Advice - eB2B Extension</t>
+  </si>
+  <si>
+    <t>urn:peppol:doctype:bilateral##eb2b:invoice::0</t>
+  </si>
+  <si>
+    <t>Bilaterally agreed Invoice - eB2B Extension</t>
+  </si>
+  <si>
+    <t>urn:peppol:doctype:bilateral##eb2b:bilateral::0</t>
+  </si>
+  <si>
+    <t>Bilaterally agreed Document - eB2B Extension</t>
+  </si>
+  <si>
+    <t>Bilateral</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:peppol:eb2b:ordering
+cenbii-procid-ubl::urn:peppol:eb2b:ordering_desadv_billing</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:peppol:eb2b:order_desadv_billing
+cenbii-procid-ubl::urn:peppol:eb2b:ordering_desadv_billing</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:peppol:eb2b:order</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:peppol:eb2b:billing</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:peppol:eb2b:oneway</t>
   </si>
 </sst>
 </file>
@@ -3135,11 +3274,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:N283"/>
+  <dimension ref="A1:N300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A233" sqref="A233"/>
+      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C300" sqref="C300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13903,6 +14042,618 @@
         <v>507</v>
       </c>
     </row>
+    <row r="284" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A284" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="D284" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="E284" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H284" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="I284" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J284" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="L284" s="23" t="s">
+        <v>783</v>
+      </c>
+      <c r="M284" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="N284" s="5" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A285" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="D285" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="E285" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H285" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="I285" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J285" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="L285" s="23" t="s">
+        <v>783</v>
+      </c>
+      <c r="M285" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="N285" s="5" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A286" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="D286" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="E286" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H286" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="I286" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J286" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="L286" s="23" t="s">
+        <v>783</v>
+      </c>
+      <c r="M286" s="23" t="s">
+        <v>692</v>
+      </c>
+      <c r="N286" s="5" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A287" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="D287" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="E287" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H287" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="I287" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J287" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="L287" s="23" t="s">
+        <v>783</v>
+      </c>
+      <c r="M287" s="23" t="s">
+        <v>695</v>
+      </c>
+      <c r="N287" s="5" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A288" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="D288" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="E288" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H288" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="I288" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J288" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="L288" s="23" t="s">
+        <v>783</v>
+      </c>
+      <c r="M288" s="23" t="s">
+        <v>696</v>
+      </c>
+      <c r="N288" s="5" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A289" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="D289" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="E289" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H289" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="I289" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J289" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="L289" s="23" t="s">
+        <v>783</v>
+      </c>
+      <c r="M289" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="N289" s="5" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A290" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="D290" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="E290" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H290" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="I290" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J290" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="L290" s="23" t="s">
+        <v>783</v>
+      </c>
+      <c r="M290" s="23" t="s">
+        <v>692</v>
+      </c>
+      <c r="N290" s="5" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A291" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="D291" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="E291" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H291" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="I291" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J291" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="L291" s="23" t="s">
+        <v>783</v>
+      </c>
+      <c r="M291" s="23" t="s">
+        <v>695</v>
+      </c>
+      <c r="N291" s="5" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A292" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="D292" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="E292" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H292" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="I292" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J292" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="L292" s="23" t="s">
+        <v>783</v>
+      </c>
+      <c r="M292" s="23" t="s">
+        <v>696</v>
+      </c>
+      <c r="N292" s="5" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A293" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="D293" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="E293" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H293" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="I293" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J293" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="L293" s="23" t="s">
+        <v>783</v>
+      </c>
+      <c r="M293" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="N293" s="5" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A294" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="D294" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="E294" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H294" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="I294" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J294" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="L294" s="23" t="s">
+        <v>783</v>
+      </c>
+      <c r="M294" s="23" t="s">
+        <v>692</v>
+      </c>
+      <c r="N294" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A295" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="D295" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="E295" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H295" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="I295" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J295" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="L295" s="23" t="s">
+        <v>783</v>
+      </c>
+      <c r="M295" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="N295" s="5" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A296" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="D296" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="E296" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H296" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="I296" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J296" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="L296" s="23" t="s">
+        <v>783</v>
+      </c>
+      <c r="M296" s="23" t="s">
+        <v>692</v>
+      </c>
+      <c r="N296" s="5" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A297" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="D297" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="E297" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H297" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="I297" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J297" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="L297" s="23" t="s">
+        <v>783</v>
+      </c>
+      <c r="M297" s="23" t="s">
+        <v>695</v>
+      </c>
+      <c r="N297" s="5" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A298" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="D298" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="E298" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H298" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="I298" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J298" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="L298" s="23" t="s">
+        <v>783</v>
+      </c>
+      <c r="M298" s="23" t="s">
+        <v>696</v>
+      </c>
+      <c r="N298" s="5" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A299" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="D299" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="E299" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H299" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="I299" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J299" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="L299" s="23" t="s">
+        <v>783</v>
+      </c>
+      <c r="M299" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="N299" s="5" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A300" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="D300" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="E300" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H300" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="I300" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J300" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="L300" s="23" t="s">
+        <v>783</v>
+      </c>
+      <c r="M300" s="23" t="s">
+        <v>819</v>
+      </c>
+      <c r="N300" s="5" t="s">
+        <v>824</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N283" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/work-in-progress/Peppol Code Lists - Document types v9.1.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v9.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FAE16A-BF01-494C-ABDD-CDD48BD87A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2CB0D2-0851-420D-8DE3-B6696B9C844D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25410" yWindow="135" windowWidth="25560" windowHeight="20745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
@@ -3277,8 +3277,8 @@
   <dimension ref="A1:N300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C300" sqref="C300"/>
+      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10131,83 +10131,87 @@
         <v>123</v>
       </c>
     </row>
-    <row r="181" spans="1:14" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="36" t="s">
+    <row r="181" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="44" t="s">
         <v>459</v>
       </c>
-      <c r="B181" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C181" s="36" t="s">
+      <c r="B181" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C181" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="D181" s="37" t="s">
+      <c r="D181" s="29" t="s">
         <v>415</v>
       </c>
-      <c r="E181" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="F181" s="40" t="s">
+      <c r="E181" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="F181" s="21" t="s">
         <v>569</v>
       </c>
-      <c r="G181" s="35"/>
-      <c r="H181" s="36" t="s">
+      <c r="G181" s="18">
+        <v>45658</v>
+      </c>
+      <c r="H181" s="15" t="s">
         <v>587</v>
       </c>
-      <c r="I181" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="K181" s="33"/>
-      <c r="L181" s="33" t="s">
+      <c r="I181" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K181" s="24"/>
+      <c r="L181" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="M181" s="33" t="s">
+      <c r="M181" s="24" t="s">
         <v>706</v>
       </c>
-      <c r="N181" s="36" t="s">
+      <c r="N181" s="19" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="182" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A182" s="36" t="s">
+    <row r="182" spans="1:14" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A182" s="44" t="s">
         <v>460</v>
       </c>
-      <c r="B182" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C182" s="36" t="s">
+      <c r="B182" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C182" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="D182" s="37" t="s">
+      <c r="D182" s="29" t="s">
         <v>415</v>
       </c>
-      <c r="E182" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="F182" s="40" t="s">
+      <c r="E182" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="F182" s="21" t="s">
         <v>569</v>
       </c>
-      <c r="G182" s="35"/>
-      <c r="H182" s="36" t="s">
+      <c r="G182" s="18">
+        <v>45658</v>
+      </c>
+      <c r="H182" s="15" t="s">
         <v>587</v>
       </c>
-      <c r="I182" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="K182" s="33"/>
-      <c r="L182" s="33" t="s">
+      <c r="I182" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K182" s="24"/>
+      <c r="L182" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="M182" s="33" t="s">
+      <c r="M182" s="24" t="s">
         <v>706</v>
       </c>
-      <c r="N182" s="36" t="s">
+      <c r="N182" s="19" t="s">
         <v>425</v>
       </c>
     </row>

--- a/work-in-progress/Peppol Code Lists - Document types v9.1.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v9.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2CB0D2-0851-420D-8DE3-B6696B9C844D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206DCE57-FA4F-4854-ABF2-E5028B7B160D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25410" yWindow="135" windowWidth="25560" windowHeight="20745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/work-in-progress/Peppol Code Lists - Document types v9.1.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v9.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206DCE57-FA4F-4854-ABF2-E5028B7B160D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD39644A-3164-4154-A3AD-0DF64D70D75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25410" yWindow="135" windowWidth="25560" windowHeight="20745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3278,7 +3278,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A182" sqref="A182"/>
+      <selection pane="bottomLeft" activeCell="G182" sqref="G182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10151,7 +10151,7 @@
         <v>569</v>
       </c>
       <c r="G181" s="18">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="H181" s="15" t="s">
         <v>587</v>
@@ -10193,7 +10193,7 @@
         <v>569</v>
       </c>
       <c r="G182" s="18">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="H182" s="15" t="s">
         <v>587</v>

--- a/work-in-progress/Peppol Code Lists - Document types v9.1.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v9.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD39644A-3164-4154-A3AD-0DF64D70D75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFE215C-6C38-414E-81BC-A5E9EE634F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25410" yWindow="135" windowWidth="25560" windowHeight="20745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="831">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -2589,6 +2589,24 @@
   </si>
   <si>
     <t>cenbii-procid-ubl::urn:peppol:eb2b:oneway</t>
+  </si>
+  <si>
+    <t>urn:fdc:peppol:tax-data-document:1.0::TaxData##urn:peppol:pint:taxdata-1@ae-1::1.0</t>
+  </si>
+  <si>
+    <t>urn:fdc:peppol:tax-data-status:1.0::TaxDataStatus##urn:peppol:pint:taxdatastatus-1@ae-1::1.0</t>
+  </si>
+  <si>
+    <t>Tax Reporting</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:peppol:bis:taxreporting</t>
+  </si>
+  <si>
+    <t>AE Tax Data Document v1.0</t>
+  </si>
+  <si>
+    <t>AE Tax Data Status v1.0</t>
   </si>
 </sst>
 </file>
@@ -3274,11 +3292,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:N300"/>
+  <dimension ref="A1:N302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G182" sqref="G182"/>
+      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A286" sqref="A286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14046,15 +14064,15 @@
         <v>507</v>
       </c>
     </row>
-    <row r="284" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A284" s="5" t="s">
-        <v>786</v>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>829</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C284" s="5" t="s">
-        <v>781</v>
+        <v>588</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>825</v>
       </c>
       <c r="D284" s="28" t="s">
         <v>740</v>
@@ -14063,7 +14081,7 @@
         <v>352</v>
       </c>
       <c r="H284" s="5" t="s">
-        <v>782</v>
+        <v>750</v>
       </c>
       <c r="I284" s="5" t="b">
         <v>0</v>
@@ -14073,24 +14091,24 @@
         <v>1</v>
       </c>
       <c r="L284" s="23" t="s">
-        <v>783</v>
+        <v>111</v>
       </c>
       <c r="M284" s="23" t="s">
-        <v>693</v>
+        <v>827</v>
       </c>
       <c r="N284" s="5" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="285" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A285" s="5" t="s">
-        <v>787</v>
+        <v>828</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>830</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C285" s="5" t="s">
-        <v>785</v>
+        <v>588</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>826</v>
       </c>
       <c r="D285" s="28" t="s">
         <v>740</v>
@@ -14099,7 +14117,7 @@
         <v>352</v>
       </c>
       <c r="H285" s="5" t="s">
-        <v>782</v>
+        <v>750</v>
       </c>
       <c r="I285" s="5" t="b">
         <v>0</v>
@@ -14109,24 +14127,24 @@
         <v>1</v>
       </c>
       <c r="L285" s="23" t="s">
-        <v>783</v>
+        <v>111</v>
       </c>
       <c r="M285" s="23" t="s">
-        <v>694</v>
+        <v>827</v>
       </c>
       <c r="N285" s="5" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="286" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B286" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="D286" s="28" t="s">
         <v>740</v>
@@ -14148,21 +14166,21 @@
         <v>783</v>
       </c>
       <c r="M286" s="23" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="N286" s="5" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="287" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B287" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="D287" s="28" t="s">
         <v>740</v>
@@ -14184,21 +14202,21 @@
         <v>783</v>
       </c>
       <c r="M287" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N287" s="5" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="288" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="B288" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="D288" s="28" t="s">
         <v>740</v>
@@ -14220,21 +14238,21 @@
         <v>783</v>
       </c>
       <c r="M288" s="23" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="N288" s="5" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="289" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B289" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D289" s="28" t="s">
         <v>740</v>
@@ -14256,21 +14274,21 @@
         <v>783</v>
       </c>
       <c r="M289" s="23" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="N289" s="5" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="290" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="B290" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="D290" s="28" t="s">
         <v>740</v>
@@ -14292,21 +14310,21 @@
         <v>783</v>
       </c>
       <c r="M290" s="23" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="N290" s="5" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="291" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B291" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="D291" s="28" t="s">
         <v>740</v>
@@ -14328,21 +14346,21 @@
         <v>783</v>
       </c>
       <c r="M291" s="23" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="N291" s="5" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="292" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B292" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D292" s="28" t="s">
         <v>740</v>
@@ -14364,21 +14382,21 @@
         <v>783</v>
       </c>
       <c r="M292" s="23" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="N292" s="5" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="293" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B293" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D293" s="28" t="s">
         <v>740</v>
@@ -14400,21 +14418,21 @@
         <v>783</v>
       </c>
       <c r="M293" s="23" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="N293" s="5" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B294" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D294" s="28" t="s">
         <v>740</v>
@@ -14436,21 +14454,21 @@
         <v>783</v>
       </c>
       <c r="M294" s="23" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="N294" s="5" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="B295" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D295" s="28" t="s">
         <v>740</v>
@@ -14475,18 +14493,18 @@
         <v>693</v>
       </c>
       <c r="N295" s="5" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="296" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B296" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D296" s="28" t="s">
         <v>740</v>
@@ -14511,18 +14529,18 @@
         <v>692</v>
       </c>
       <c r="N296" s="5" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="297" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B297" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D297" s="28" t="s">
         <v>740</v>
@@ -14544,21 +14562,21 @@
         <v>783</v>
       </c>
       <c r="M297" s="23" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="N297" s="5" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="298" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B298" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D298" s="28" t="s">
         <v>740</v>
@@ -14580,21 +14598,21 @@
         <v>783</v>
       </c>
       <c r="M298" s="23" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="N298" s="5" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="299" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B299" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="D299" s="28" t="s">
         <v>740</v>
@@ -14616,21 +14634,21 @@
         <v>783</v>
       </c>
       <c r="M299" s="23" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="N299" s="5" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B300" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="D300" s="28" t="s">
         <v>740</v>
@@ -14652,9 +14670,81 @@
         <v>783</v>
       </c>
       <c r="M300" s="23" t="s">
+        <v>696</v>
+      </c>
+      <c r="N300" s="5" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A301" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="D301" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="E301" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H301" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="I301" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J301" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="L301" s="23" t="s">
+        <v>783</v>
+      </c>
+      <c r="M301" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="N301" s="5" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A302" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="D302" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="E302" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H302" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="I302" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J302" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="L302" s="23" t="s">
+        <v>783</v>
+      </c>
+      <c r="M302" s="23" t="s">
         <v>819</v>
       </c>
-      <c r="N300" s="5" t="s">
+      <c r="N302" s="5" t="s">
         <v>824</v>
       </c>
     </row>

--- a/work-in-progress/Peppol Code Lists - Document types v9.1.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v9.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFE215C-6C38-414E-81BC-A5E9EE634F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BE87DE-0293-4139-BDC9-0560BB0DE064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25410" yWindow="135" windowWidth="25560" windowHeight="20745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="834">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -2607,6 +2607,15 @@
   </si>
   <si>
     <t>AE Tax Data Status v1.0</t>
+  </si>
+  <si>
+    <t>DICO Maintenance Status</t>
+  </si>
+  <si>
+    <t>http://www.ketenstandaard.nl/onderhoudsstatus/SALES/005::MaintenanceStatus##dico:maintenancestatus@nl-1.0::1.0</t>
+  </si>
+  <si>
+    <t>TICC-360</t>
   </si>
 </sst>
 </file>
@@ -3292,11 +3301,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:N302"/>
+  <dimension ref="A1:N303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A286" sqref="A286"/>
+      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A304" sqref="A304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14748,6 +14757,41 @@
         <v>824</v>
       </c>
     </row>
+    <row r="303" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A303" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="D303" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="E303" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H303" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="I303" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J303" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L303" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="M303" s="23" t="s">
+        <v>716</v>
+      </c>
+      <c r="N303" s="5" t="s">
+        <v>713</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N283" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/work-in-progress/Peppol Code Lists - Document types v9.1.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v9.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philip/dev/git-peppol/edec-codelists/work-in-progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BE87DE-0293-4139-BDC9-0560BB0DE064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4A8EB2-BD4C-6E4D-B97E-260DA47977C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25410" yWindow="135" windowWidth="25560" windowHeight="20745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
@@ -2745,7 +2745,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2887,6 +2887,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3304,30 +3307,30 @@
   <dimension ref="A1:N303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A304" sqref="A304"/>
+      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A230" sqref="A230"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="97.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="23"/>
-    <col min="12" max="12" width="19.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" style="23" customWidth="1"/>
-    <col min="14" max="14" width="84.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="5"/>
+    <col min="7" max="7" width="15.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="23"/>
+    <col min="12" max="12" width="19.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.1640625" style="23" customWidth="1"/>
+    <col min="14" max="14" width="84.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>117</v>
       </c>
@@ -3371,7 +3374,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>7</v>
       </c>
@@ -3411,7 +3414,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>8</v>
       </c>
@@ -3451,7 +3454,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
         <v>9</v>
       </c>
@@ -3491,7 +3494,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>96</v>
       </c>
@@ -3531,7 +3534,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
         <v>98</v>
       </c>
@@ -3571,7 +3574,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
         <v>98</v>
       </c>
@@ -3611,7 +3614,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
         <v>36</v>
       </c>
@@ -3651,7 +3654,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
         <v>28</v>
       </c>
@@ -3691,7 +3694,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
         <v>336</v>
       </c>
@@ -3734,7 +3737,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
         <v>29</v>
       </c>
@@ -3774,7 +3777,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
         <v>25</v>
       </c>
@@ -3814,7 +3817,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
         <v>26</v>
       </c>
@@ -3854,7 +3857,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
         <v>97</v>
       </c>
@@ -3894,7 +3897,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
         <v>752</v>
       </c>
@@ -3934,7 +3937,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
         <v>97</v>
       </c>
@@ -3974,7 +3977,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
         <v>89</v>
       </c>
@@ -4014,7 +4017,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
         <v>753</v>
       </c>
@@ -4054,7 +4057,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
         <v>93</v>
       </c>
@@ -4094,7 +4097,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
         <v>94</v>
       </c>
@@ -4134,7 +4137,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="36" t="s">
         <v>94</v>
       </c>
@@ -4174,7 +4177,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
         <v>95</v>
       </c>
@@ -4214,7 +4217,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
         <v>754</v>
       </c>
@@ -4254,7 +4257,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="36" t="s">
         <v>95</v>
       </c>
@@ -4294,7 +4297,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="36" t="s">
         <v>34</v>
       </c>
@@ -4332,7 +4335,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>35</v>
       </c>
@@ -4365,7 +4368,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
         <v>91</v>
       </c>
@@ -4405,7 +4408,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="36" t="s">
         <v>333</v>
       </c>
@@ -4448,7 +4451,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="36" t="s">
         <v>92</v>
       </c>
@@ -4488,7 +4491,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
         <v>39</v>
       </c>
@@ -4528,7 +4531,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
         <v>40</v>
       </c>
@@ -4568,7 +4571,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>450</v>
       </c>
@@ -4607,7 +4610,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>757</v>
       </c>
@@ -4646,7 +4649,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>90</v>
       </c>
@@ -4679,7 +4682,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="36" t="s">
         <v>330</v>
       </c>
@@ -4720,7 +4723,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>118</v>
       </c>
@@ -4756,7 +4759,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>451</v>
       </c>
@@ -4792,7 +4795,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="36" t="s">
         <v>466</v>
       </c>
@@ -4835,7 +4838,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="36" t="s">
         <v>465</v>
       </c>
@@ -4878,7 +4881,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="36" t="s">
         <v>464</v>
       </c>
@@ -4921,7 +4924,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="36" t="s">
         <v>463</v>
       </c>
@@ -4964,7 +4967,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="36" t="s">
         <v>462</v>
       </c>
@@ -5007,7 +5010,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="36" t="s">
         <v>461</v>
       </c>
@@ -5050,7 +5053,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
         <v>99</v>
       </c>
@@ -5093,7 +5096,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>755</v>
       </c>
@@ -5136,7 +5139,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
         <v>100</v>
       </c>
@@ -5179,7 +5182,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>61</v>
       </c>
@@ -5215,7 +5218,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>62</v>
       </c>
@@ -5251,7 +5254,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>63</v>
       </c>
@@ -5287,7 +5290,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>64</v>
       </c>
@@ -5323,7 +5326,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="36" t="s">
         <v>440</v>
       </c>
@@ -5363,7 +5366,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>441</v>
       </c>
@@ -5399,7 +5402,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>442</v>
       </c>
@@ -5435,7 +5438,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>443</v>
       </c>
@@ -5474,7 +5477,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>444</v>
       </c>
@@ -5513,7 +5516,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>446</v>
       </c>
@@ -5549,7 +5552,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>445</v>
       </c>
@@ -5585,7 +5588,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>447</v>
       </c>
@@ -5621,7 +5624,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>448</v>
       </c>
@@ -5657,7 +5660,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>449</v>
       </c>
@@ -5693,7 +5696,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>79</v>
       </c>
@@ -5726,7 +5729,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>756</v>
       </c>
@@ -5759,7 +5762,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>452</v>
       </c>
@@ -5795,7 +5798,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="36" t="s">
         <v>331</v>
       </c>
@@ -5838,7 +5841,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>453</v>
       </c>
@@ -5877,7 +5880,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
         <v>84</v>
       </c>
@@ -5920,7 +5923,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
         <v>758</v>
       </c>
@@ -5963,7 +5966,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:14" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
         <v>85</v>
       </c>
@@ -6006,7 +6009,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>101</v>
       </c>
@@ -6042,7 +6045,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>102</v>
       </c>
@@ -6078,7 +6081,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>106</v>
       </c>
@@ -6114,7 +6117,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>454</v>
       </c>
@@ -6153,7 +6156,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>759</v>
       </c>
@@ -6192,7 +6195,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>112</v>
       </c>
@@ -6228,7 +6231,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>760</v>
       </c>
@@ -6264,7 +6267,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="76" spans="1:14" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
         <v>153</v>
       </c>
@@ -6307,7 +6310,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
         <v>156</v>
       </c>
@@ -6350,7 +6353,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="1:14" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
         <v>158</v>
       </c>
@@ -6393,7 +6396,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="1:14" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
         <v>761</v>
       </c>
@@ -6436,7 +6439,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="80" spans="1:14" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
         <v>159</v>
       </c>
@@ -6479,7 +6482,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>162</v>
       </c>
@@ -6515,7 +6518,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>763</v>
       </c>
@@ -6551,7 +6554,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
         <v>228</v>
       </c>
@@ -6594,7 +6597,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>163</v>
       </c>
@@ -6630,7 +6633,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="85" spans="1:14" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" s="15" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
         <v>166</v>
       </c>
@@ -6673,7 +6676,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:14" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
         <v>762</v>
       </c>
@@ -6716,7 +6719,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="1:14" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
         <v>167</v>
       </c>
@@ -6759,7 +6762,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>172</v>
       </c>
@@ -6795,7 +6798,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="89" spans="1:14" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="36" t="s">
         <v>219</v>
       </c>
@@ -6836,7 +6839,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:14" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="36" t="s">
         <v>220</v>
       </c>
@@ -6877,7 +6880,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="1:14" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="36" t="s">
         <v>221</v>
       </c>
@@ -6918,7 +6921,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A92" s="36" t="s">
         <v>222</v>
       </c>
@@ -6959,7 +6962,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>184</v>
       </c>
@@ -6995,7 +6998,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>765</v>
       </c>
@@ -7031,7 +7034,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>185</v>
       </c>
@@ -7067,7 +7070,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>190</v>
       </c>
@@ -7103,7 +7106,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>764</v>
       </c>
@@ -7139,7 +7142,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="98" spans="1:14" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" s="15" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
         <v>232</v>
       </c>
@@ -7182,7 +7185,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>191</v>
       </c>
@@ -7218,7 +7221,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>208</v>
       </c>
@@ -7254,7 +7257,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>209</v>
       </c>
@@ -7290,7 +7293,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>210</v>
       </c>
@@ -7326,7 +7329,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="103" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
         <v>218</v>
       </c>
@@ -7367,7 +7370,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>173</v>
       </c>
@@ -7403,7 +7406,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>174</v>
       </c>
@@ -7439,7 +7442,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>175</v>
       </c>
@@ -7475,7 +7478,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>176</v>
       </c>
@@ -7511,7 +7514,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>238</v>
       </c>
@@ -7547,7 +7550,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>239</v>
       </c>
@@ -7583,7 +7586,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>240</v>
       </c>
@@ -7619,7 +7622,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>241</v>
       </c>
@@ -7655,7 +7658,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>242</v>
       </c>
@@ -7691,7 +7694,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>243</v>
       </c>
@@ -7727,7 +7730,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>244</v>
       </c>
@@ -7763,7 +7766,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>245</v>
       </c>
@@ -7799,7 +7802,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>246</v>
       </c>
@@ -7835,7 +7838,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>247</v>
       </c>
@@ -7871,7 +7874,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>248</v>
       </c>
@@ -7907,7 +7910,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>249</v>
       </c>
@@ -7943,7 +7946,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>250</v>
       </c>
@@ -7979,7 +7982,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>251</v>
       </c>
@@ -8015,7 +8018,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>252</v>
       </c>
@@ -8051,7 +8054,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>253</v>
       </c>
@@ -8087,7 +8090,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>254</v>
       </c>
@@ -8123,7 +8126,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>255</v>
       </c>
@@ -8159,7 +8162,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>256</v>
       </c>
@@ -8195,7 +8198,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>257</v>
       </c>
@@ -8231,7 +8234,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>258</v>
       </c>
@@ -8267,7 +8270,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>259</v>
       </c>
@@ -8303,7 +8306,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>455</v>
       </c>
@@ -8341,7 +8344,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
         <v>456</v>
       </c>
@@ -8379,7 +8382,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
         <v>457</v>
       </c>
@@ -8417,7 +8420,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
         <v>458</v>
       </c>
@@ -8455,7 +8458,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
         <v>292</v>
       </c>
@@ -8490,7 +8493,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
         <v>293</v>
       </c>
@@ -8525,7 +8528,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>294</v>
       </c>
@@ -8560,7 +8563,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>295</v>
       </c>
@@ -8595,7 +8598,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>296</v>
       </c>
@@ -8630,7 +8633,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
         <v>297</v>
       </c>
@@ -8665,7 +8668,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
         <v>298</v>
       </c>
@@ -8700,7 +8703,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>299</v>
       </c>
@@ -8735,7 +8738,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>300</v>
       </c>
@@ -8770,7 +8773,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="143" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>301</v>
       </c>
@@ -8805,7 +8808,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="144" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>302</v>
       </c>
@@ -8840,7 +8843,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>303</v>
       </c>
@@ -8875,7 +8878,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
         <v>304</v>
       </c>
@@ -8910,7 +8913,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>305</v>
       </c>
@@ -8945,7 +8948,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
         <v>337</v>
       </c>
@@ -8980,7 +8983,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
         <v>766</v>
       </c>
@@ -9015,7 +9018,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="150" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
         <v>338</v>
       </c>
@@ -9050,7 +9053,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
         <v>343</v>
       </c>
@@ -9085,7 +9088,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>767</v>
       </c>
@@ -9120,7 +9123,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
         <v>344</v>
       </c>
@@ -9155,7 +9158,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
         <v>360</v>
       </c>
@@ -9190,7 +9193,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
         <v>361</v>
       </c>
@@ -9225,7 +9228,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
         <v>362</v>
       </c>
@@ -9260,7 +9263,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
         <v>374</v>
       </c>
@@ -9298,7 +9301,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
         <v>375</v>
       </c>
@@ -9336,7 +9339,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="159" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
         <v>376</v>
       </c>
@@ -9374,7 +9377,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="160" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
         <v>377</v>
       </c>
@@ -9412,7 +9415,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
         <v>378</v>
       </c>
@@ -9450,7 +9453,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="162" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
         <v>379</v>
       </c>
@@ -9488,7 +9491,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
         <v>380</v>
       </c>
@@ -9526,7 +9529,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>381</v>
       </c>
@@ -9564,7 +9567,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="165" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
         <v>382</v>
       </c>
@@ -9602,7 +9605,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="166" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
         <v>383</v>
       </c>
@@ -9640,7 +9643,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
         <v>384</v>
       </c>
@@ -9678,7 +9681,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
         <v>385</v>
       </c>
@@ -9716,7 +9719,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="169" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
         <v>386</v>
       </c>
@@ -9754,7 +9757,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
         <v>387</v>
       </c>
@@ -9792,7 +9795,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
         <v>390</v>
       </c>
@@ -9830,7 +9833,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
         <v>389</v>
       </c>
@@ -9868,7 +9871,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="173" spans="1:14" s="36" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" s="36" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A173" s="36" t="s">
         <v>542</v>
       </c>
@@ -9910,7 +9913,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
         <v>388</v>
       </c>
@@ -9948,7 +9951,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="175" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
         <v>411</v>
       </c>
@@ -9983,7 +9986,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="176" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
         <v>768</v>
       </c>
@@ -10018,7 +10021,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="177" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
         <v>412</v>
       </c>
@@ -10053,7 +10056,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="178" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
         <v>413</v>
       </c>
@@ -10088,7 +10091,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="179" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
         <v>769</v>
       </c>
@@ -10123,7 +10126,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="180" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
         <v>414</v>
       </c>
@@ -10158,7 +10161,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="181" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A181" s="44" t="s">
         <v>459</v>
       </c>
@@ -10200,7 +10203,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="182" spans="1:14" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A182" s="44" t="s">
         <v>460</v>
       </c>
@@ -10242,7 +10245,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="183" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
         <v>552</v>
       </c>
@@ -10280,7 +10283,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="184" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
         <v>553</v>
       </c>
@@ -10318,7 +10321,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="185" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
         <v>554</v>
       </c>
@@ -10356,7 +10359,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="186" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
         <v>435</v>
       </c>
@@ -10391,7 +10394,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="187" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
         <v>467</v>
       </c>
@@ -10426,7 +10429,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="188" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A188" s="44" t="s">
         <v>470</v>
       </c>
@@ -10471,7 +10474,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="189" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>478</v>
       </c>
@@ -10509,7 +10512,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="190" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
         <v>479</v>
       </c>
@@ -10547,7 +10550,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="191" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
         <v>480</v>
       </c>
@@ -10585,7 +10588,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="192" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
         <v>494</v>
       </c>
@@ -10620,7 +10623,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="193" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
         <v>771</v>
       </c>
@@ -10655,7 +10658,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="194" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
         <v>495</v>
       </c>
@@ -10690,7 +10693,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="195" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
         <v>496</v>
       </c>
@@ -10725,7 +10728,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="196" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
         <v>772</v>
       </c>
@@ -10760,7 +10763,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="197" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
         <v>497</v>
       </c>
@@ -10795,7 +10798,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="198" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A198" s="44" t="s">
         <v>504</v>
       </c>
@@ -10840,7 +10843,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="199" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
         <v>508</v>
       </c>
@@ -10879,7 +10882,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="200" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
         <v>509</v>
       </c>
@@ -10918,7 +10921,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="201" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
         <v>513</v>
       </c>
@@ -10957,7 +10960,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="202" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
         <v>514</v>
       </c>
@@ -10996,7 +10999,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="203" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
         <v>518</v>
       </c>
@@ -11034,7 +11037,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="204" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
         <v>519</v>
       </c>
@@ -11072,7 +11075,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
         <v>523</v>
       </c>
@@ -11110,7 +11113,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="206" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
         <v>524</v>
       </c>
@@ -11148,7 +11151,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
         <v>529</v>
       </c>
@@ -11186,7 +11189,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="208" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
         <v>528</v>
       </c>
@@ -11224,7 +11227,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="209" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
         <v>533</v>
       </c>
@@ -11262,7 +11265,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="210" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
         <v>534</v>
       </c>
@@ -11300,7 +11303,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="211" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
         <v>544</v>
       </c>
@@ -11338,7 +11341,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="212" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
         <v>546</v>
       </c>
@@ -11376,7 +11379,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="213" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
         <v>547</v>
       </c>
@@ -11414,7 +11417,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="214" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
         <v>556</v>
       </c>
@@ -11452,7 +11455,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="215" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
         <v>557</v>
       </c>
@@ -11490,7 +11493,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="216" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
         <v>558</v>
       </c>
@@ -11528,7 +11531,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="217" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
         <v>559</v>
       </c>
@@ -11566,7 +11569,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="218" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
         <v>560</v>
       </c>
@@ -11604,7 +11607,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="219" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
         <v>561</v>
       </c>
@@ -11642,7 +11645,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
         <v>576</v>
       </c>
@@ -11677,7 +11680,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="221" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
         <v>581</v>
       </c>
@@ -11712,7 +11715,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="222" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
         <v>582</v>
       </c>
@@ -11747,7 +11750,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
         <v>592</v>
       </c>
@@ -11785,7 +11788,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
         <v>770</v>
       </c>
@@ -11823,7 +11826,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="225" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A225" s="44" t="s">
         <v>595</v>
       </c>
@@ -11867,7 +11870,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>595</v>
       </c>
@@ -11905,7 +11908,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>504</v>
       </c>
@@ -11943,7 +11946,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="228" spans="1:14" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A228" s="44" t="s">
         <v>596</v>
       </c>
@@ -11987,7 +11990,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="229" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>596</v>
       </c>
@@ -12025,183 +12028,183 @@
         <v>591</v>
       </c>
     </row>
-    <row r="230" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A230" s="36" t="s">
+    <row r="230" spans="1:14" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A230" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="B230" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C230" s="36" t="s">
+      <c r="B230" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C230" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="D230" s="32" t="s">
+      <c r="D230" s="29" t="s">
         <v>569</v>
       </c>
-      <c r="E230" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="F230" s="41" t="s">
+      <c r="E230" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="F230" s="52" t="s">
         <v>740</v>
       </c>
-      <c r="G230" s="35">
+      <c r="G230" s="18">
         <v>45717</v>
       </c>
-      <c r="H230" s="36" t="s">
+      <c r="H230" s="15" t="s">
         <v>751</v>
       </c>
-      <c r="I230" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J230" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="K230" s="33">
+      <c r="I230" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J230" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K230" s="24">
         <v>3</v>
       </c>
-      <c r="L230" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M230" s="33" t="s">
+      <c r="L230" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="M230" s="24" t="s">
         <v>693</v>
       </c>
-      <c r="N230" s="36" t="s">
+      <c r="N230" s="15" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="231" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A231" s="36" t="s">
+    <row r="231" spans="1:14" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A231" s="15" t="s">
         <v>600</v>
       </c>
-      <c r="B231" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C231" s="36" t="s">
+      <c r="B231" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C231" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="D231" s="32" t="s">
+      <c r="D231" s="29" t="s">
         <v>569</v>
       </c>
-      <c r="E231" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="F231" s="41" t="s">
+      <c r="E231" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="F231" s="52" t="s">
         <v>740</v>
       </c>
-      <c r="G231" s="35">
+      <c r="G231" s="18">
         <v>45717</v>
       </c>
-      <c r="H231" s="36" t="s">
+      <c r="H231" s="15" t="s">
         <v>751</v>
       </c>
-      <c r="I231" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J231" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="K231" s="33">
+      <c r="I231" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J231" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K231" s="24">
         <v>3</v>
       </c>
-      <c r="L231" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M231" s="33" t="s">
+      <c r="L231" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="M231" s="24" t="s">
         <v>694</v>
       </c>
-      <c r="N231" s="36" t="s">
+      <c r="N231" s="15" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="232" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A232" s="36" t="s">
+    <row r="232" spans="1:14" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A232" s="15" t="s">
         <v>602</v>
       </c>
-      <c r="B232" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C232" s="36" t="s">
+      <c r="B232" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C232" s="15" t="s">
         <v>603</v>
       </c>
-      <c r="D232" s="32" t="s">
+      <c r="D232" s="29" t="s">
         <v>569</v>
       </c>
-      <c r="E232" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="F232" s="41" t="s">
+      <c r="E232" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="F232" s="52" t="s">
         <v>740</v>
       </c>
-      <c r="G232" s="35">
+      <c r="G232" s="18">
         <v>45717</v>
       </c>
-      <c r="H232" s="36" t="s">
+      <c r="H232" s="15" t="s">
         <v>751</v>
       </c>
-      <c r="I232" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J232" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="K232" s="33">
+      <c r="I232" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J232" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K232" s="24">
         <v>3</v>
       </c>
-      <c r="L232" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M232" s="33" t="s">
+      <c r="L232" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="M232" s="24" t="s">
         <v>693</v>
       </c>
-      <c r="N232" s="36" t="s">
+      <c r="N232" s="15" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="233" spans="1:14" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A233" s="36" t="s">
+    <row r="233" spans="1:14" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A233" s="15" t="s">
         <v>604</v>
       </c>
-      <c r="B233" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C233" s="36" t="s">
+      <c r="B233" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C233" s="15" t="s">
         <v>605</v>
       </c>
-      <c r="D233" s="32" t="s">
+      <c r="D233" s="29" t="s">
         <v>569</v>
       </c>
-      <c r="E233" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="F233" s="41" t="s">
+      <c r="E233" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="F233" s="52" t="s">
         <v>740</v>
       </c>
-      <c r="G233" s="35">
+      <c r="G233" s="18">
         <v>45717</v>
       </c>
-      <c r="H233" s="36" t="s">
+      <c r="H233" s="15" t="s">
         <v>751</v>
       </c>
-      <c r="I233" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J233" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="K233" s="33">
+      <c r="I233" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J233" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K233" s="24">
         <v>3</v>
       </c>
-      <c r="L233" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M233" s="33" t="s">
+      <c r="L233" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="M233" s="24" t="s">
         <v>694</v>
       </c>
-      <c r="N233" s="36" t="s">
+      <c r="N233" s="15" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
         <v>598</v>
       </c>
@@ -12239,7 +12242,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="235" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
         <v>600</v>
       </c>
@@ -12277,7 +12280,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="236" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
         <v>602</v>
       </c>
@@ -12315,7 +12318,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="237" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
         <v>604</v>
       </c>
@@ -12353,7 +12356,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="238" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
         <v>609</v>
       </c>
@@ -12388,7 +12391,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="239" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
         <v>773</v>
       </c>
@@ -12423,7 +12426,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="240" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
         <v>610</v>
       </c>
@@ -12458,7 +12461,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="241" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
         <v>611</v>
       </c>
@@ -12493,7 +12496,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="242" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
         <v>774</v>
       </c>
@@ -12528,7 +12531,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="243" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
         <v>612</v>
       </c>
@@ -12563,7 +12566,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
         <v>622</v>
       </c>
@@ -12601,7 +12604,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="245" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="5" t="s">
         <v>621</v>
       </c>
@@ -12639,7 +12642,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>633</v>
       </c>
@@ -12677,7 +12680,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="247" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>634</v>
       </c>
@@ -12715,7 +12718,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>635</v>
       </c>
@@ -12753,7 +12756,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="249" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>636</v>
       </c>
@@ -12791,7 +12794,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="250" spans="1:14" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" s="45" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A250" s="48" t="s">
         <v>633</v>
       </c>
@@ -12835,7 +12838,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="251" spans="1:14" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" s="45" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A251" s="48" t="s">
         <v>634</v>
       </c>
@@ -12879,7 +12882,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="252" spans="1:14" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" s="45" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A252" s="48" t="s">
         <v>635</v>
       </c>
@@ -12923,7 +12926,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="253" spans="1:14" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" s="45" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A253" s="48" t="s">
         <v>636</v>
       </c>
@@ -12967,7 +12970,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
         <v>643</v>
       </c>
@@ -13002,7 +13005,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
         <v>648</v>
       </c>
@@ -13037,7 +13040,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="5" t="s">
         <v>649</v>
       </c>
@@ -13072,7 +13075,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
         <v>651</v>
       </c>
@@ -13107,7 +13110,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
         <v>652</v>
       </c>
@@ -13142,7 +13145,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
         <v>654</v>
       </c>
@@ -13177,7 +13180,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="260" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="5" t="s">
         <v>671</v>
       </c>
@@ -13212,7 +13215,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="261" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="5" t="s">
         <v>672</v>
       </c>
@@ -13247,7 +13250,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="262" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="5" t="s">
         <v>673</v>
       </c>
@@ -13282,7 +13285,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="263" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A263" s="5" t="s">
         <v>674</v>
       </c>
@@ -13317,7 +13320,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="264" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
         <v>675</v>
       </c>
@@ -13352,7 +13355,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="265" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A265" s="5" t="s">
         <v>676</v>
       </c>
@@ -13387,7 +13390,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="266" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A266" s="5" t="s">
         <v>677</v>
       </c>
@@ -13422,7 +13425,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="267" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A267" s="5" t="s">
         <v>678</v>
       </c>
@@ -13457,7 +13460,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="268" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
         <v>679</v>
       </c>
@@ -13492,7 +13495,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="269" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A269" s="5" t="s">
         <v>737</v>
       </c>
@@ -13531,7 +13534,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="270" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A270" s="5" t="s">
         <v>777</v>
       </c>
@@ -13570,7 +13573,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="271" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A271" s="5" t="s">
         <v>714</v>
       </c>
@@ -13605,7 +13608,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="272" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A272" s="5" t="s">
         <v>729</v>
       </c>
@@ -13644,7 +13647,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="273" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A273" s="5" t="s">
         <v>723</v>
       </c>
@@ -13683,7 +13686,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="274" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A274" s="5" t="s">
         <v>724</v>
       </c>
@@ -13722,7 +13725,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="275" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A275" s="5" t="s">
         <v>725</v>
       </c>
@@ -13761,7 +13764,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="276" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A276" s="5" t="s">
         <v>726</v>
       </c>
@@ -13800,7 +13803,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="277" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A277" s="5" t="s">
         <v>730</v>
       </c>
@@ -13839,7 +13842,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="278" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A278" s="5" t="s">
         <v>775</v>
       </c>
@@ -13878,7 +13881,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="279" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A279" s="5" t="s">
         <v>776</v>
       </c>
@@ -13917,7 +13920,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>742</v>
       </c>
@@ -13956,7 +13959,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="281" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>743</v>
       </c>
@@ -13995,7 +13998,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>744</v>
       </c>
@@ -14034,7 +14037,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="283" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>745</v>
       </c>
@@ -14073,7 +14076,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>829</v>
       </c>
@@ -14109,7 +14112,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>830</v>
       </c>
@@ -14145,7 +14148,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="286" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A286" s="5" t="s">
         <v>786</v>
       </c>
@@ -14181,7 +14184,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="287" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A287" s="5" t="s">
         <v>787</v>
       </c>
@@ -14217,7 +14220,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="288" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A288" s="5" t="s">
         <v>789</v>
       </c>
@@ -14253,7 +14256,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="289" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
         <v>792</v>
       </c>
@@ -14289,7 +14292,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="290" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A290" s="5" t="s">
         <v>794</v>
       </c>
@@ -14325,7 +14328,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="291" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A291" s="5" t="s">
         <v>796</v>
       </c>
@@ -14361,7 +14364,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="292" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A292" s="5" t="s">
         <v>798</v>
       </c>
@@ -14397,7 +14400,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="293" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A293" s="5" t="s">
         <v>799</v>
       </c>
@@ -14433,7 +14436,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="294" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A294" s="5" t="s">
         <v>800</v>
       </c>
@@ -14469,7 +14472,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="295" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A295" s="5" t="s">
         <v>801</v>
       </c>
@@ -14505,7 +14508,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="5" t="s">
         <v>805</v>
       </c>
@@ -14541,7 +14544,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="5" t="s">
         <v>808</v>
       </c>
@@ -14577,7 +14580,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="298" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A298" s="5" t="s">
         <v>810</v>
       </c>
@@ -14613,7 +14616,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="299" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A299" s="5" t="s">
         <v>812</v>
       </c>
@@ -14649,7 +14652,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="300" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A300" s="5" t="s">
         <v>814</v>
       </c>
@@ -14685,7 +14688,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="301" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A301" s="5" t="s">
         <v>816</v>
       </c>
@@ -14721,7 +14724,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="5" t="s">
         <v>818</v>
       </c>
@@ -14757,7 +14760,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="303" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="5" t="s">
         <v>831</v>
       </c>
